--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E97DCE-9236-467D-9D86-23F2FC0E03C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0FDB7E-EBD8-485F-9283-9E1C750BA25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,10 @@
     <sheet name="Privacy values" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Services clean'!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Services clean'!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Services clean'!#REF!</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Services clean'!$AB$2:$AB$76</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Services test'!$AC$2:$AC$76</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Services test'!$AD$2:$AD$76</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Services test'!$AE$2:$AE$76</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Services test'!$AD$2:$AD$76</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Services test'!$AF$2:$AF$76</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Services test'!$AD$2:$AD$76</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Services test'!$AE$2:$AE$76</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Services test'!$AC$2:$AC$76</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Services test'!$AF$2:$AF$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -981,7 +976,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -991,9 +986,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
@@ -1023,6 +1017,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1091,7 +1086,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1179,7 +1173,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1240,7 +1234,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1301,7 +1295,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1362,7 +1356,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3933,7 +3927,7 @@
     <sortCondition ref="C1:C76"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{071B4CFE-A03A-4AF7-B42B-C2B7DAA07DCB}" name="Website" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{071B4CFE-A03A-4AF7-B42B-C2B7DAA07DCB}" name="Website" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{028F8BBD-31E2-4672-93E2-F1D5B57B06E7}" name="Domain name"/>
     <tableColumn id="3" xr3:uid="{495839F7-72B2-4D33-B257-D25EE0AF3720}" name="Type"/>
     <tableColumn id="4" xr3:uid="{0A72491A-C0F4-4953-B010-2D1A2CFF0B67}" name="Company"/>
@@ -3957,9 +3951,9 @@
     <tableColumn id="19" xr3:uid="{2F9AFFDC-06F4-46CE-8B09-1E3AB11FB27F}" name="Messages"/>
     <tableColumn id="20" xr3:uid="{CC102357-8ABD-4B62-9A2C-8615EA74B057}" name="subscription"/>
     <tableColumn id="21" xr3:uid="{9A8F6B4C-580A-454D-A45F-531D0093D8CB}" name="purchases"/>
-    <tableColumn id="24" xr3:uid="{BC1D07B0-AB2C-44CA-B95E-0914F2FB83EE}" name="money stored" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{171EEF98-D3DA-4D14-A89F-D2327B05271C}" name="key to other accounts" dataDxfId="1"/>
-    <tableColumn id="29" xr3:uid="{964289FB-1944-470B-AF80-DED834E4EBD0}" name="Sexual preferences" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{BC1D07B0-AB2C-44CA-B95E-0914F2FB83EE}" name="money stored" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{171EEF98-D3DA-4D14-A89F-D2327B05271C}" name="key to other accounts" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{964289FB-1944-470B-AF80-DED834E4EBD0}" name="Sexual preferences" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3971,7 +3965,7 @@
     <sortCondition ref="C1:C76"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{D49D63F5-14C4-474F-AC2A-717807CBA19D}" name="Website" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D49D63F5-14C4-474F-AC2A-717807CBA19D}" name="Website" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{967C92E5-930D-421B-96AB-24880DF56001}" name="Domain name"/>
     <tableColumn id="3" xr3:uid="{0F98C143-4D0B-4475-9B66-A3B7B357676B}" name="Type"/>
     <tableColumn id="4" xr3:uid="{FE726D90-FE6D-45AE-A82B-74913D74B4C9}" name="Company"/>
@@ -3995,10 +3989,10 @@
     <tableColumn id="19" xr3:uid="{6D279B90-8B6A-4969-AA25-549CB632101F}" name="Messages"/>
     <tableColumn id="20" xr3:uid="{ED04A4C0-FB40-44A6-83DA-2CC6D398451E}" name="subscription"/>
     <tableColumn id="21" xr3:uid="{E5146E0C-0CB1-4A72-8CC4-D894B22246AB}" name="purchases"/>
-    <tableColumn id="24" xr3:uid="{B3AA793D-C1A7-4FEF-9806-0EBB14D673EF}" name="money stored" dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{65983C56-E6B3-4E44-9E39-FF5DD8D46B16}" name="key to other accounts" dataDxfId="6"/>
-    <tableColumn id="29" xr3:uid="{FAC1B20E-7929-44D8-BCF3-FA3836B357D2}" name="Sexual preferences" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{75CC30E7-C3D3-415D-B891-9ACAF13E6392}" name="risk" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{B3AA793D-C1A7-4FEF-9806-0EBB14D673EF}" name="money stored" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{65983C56-E6B3-4E44-9E39-FF5DD8D46B16}" name="key to other accounts" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{FAC1B20E-7929-44D8-BCF3-FA3836B357D2}" name="Sexual preferences" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{75CC30E7-C3D3-415D-B891-9ACAF13E6392}" name="risk" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7833,7 +7827,7 @@
     <row r="87" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB89" s="13"/>
+      <c r="AB89" s="12"/>
     </row>
     <row r="90" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13065,26 +13059,22 @@
       </c>
     </row>
     <row r="77" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
       <c r="AB77" t="s">
         <v>232</v>
       </c>
-      <c r="AC77" s="10">
+      <c r="AC77" s="9">
         <f>MAX(AC2:AC76)</f>
         <v>13.466862431914784</v>
       </c>
-      <c r="AD77" s="10">
+      <c r="AD77" s="9">
         <f t="shared" ref="AD77:AF77" si="0">MAX(AD2:AD76)</f>
         <v>101</v>
       </c>
-      <c r="AE77" s="10">
+      <c r="AE77" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AF77" s="10">
+      <c r="AF77" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -13169,19 +13159,19 @@
       <c r="AB78" t="s">
         <v>234</v>
       </c>
-      <c r="AC78" s="10">
+      <c r="AC78" s="9">
         <f>MIN(AC2:AC76)</f>
         <v>1.2190136542044754</v>
       </c>
-      <c r="AD78" s="10">
+      <c r="AD78" s="9">
         <f t="shared" ref="AD78:AF78" si="1">MIN(AD2:AD76)</f>
         <v>9</v>
       </c>
-      <c r="AE78" s="10">
+      <c r="AE78" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AF78" s="10">
+      <c r="AF78" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -13266,19 +13256,19 @@
       <c r="AB79" t="s">
         <v>26</v>
       </c>
-      <c r="AC79" s="10">
+      <c r="AC79" s="9">
         <f>GEOMEAN(AC2:AC76)</f>
         <v>7.0051105610094488</v>
       </c>
-      <c r="AD79" s="10">
+      <c r="AD79" s="9">
         <f t="shared" ref="AD79:AF79" si="2">GEOMEAN(AD2:AD76)</f>
         <v>52.286969945621912</v>
       </c>
-      <c r="AE79" s="10">
+      <c r="AE79" s="9">
         <f t="shared" si="2"/>
         <v>12.068861269491313</v>
       </c>
-      <c r="AF79" s="10">
+      <c r="AF79" s="9">
         <f t="shared" si="2"/>
         <v>6.7264063004347427</v>
       </c>
@@ -13363,19 +13353,19 @@
       <c r="AB80" t="s">
         <v>233</v>
       </c>
-      <c r="AC80" s="10">
+      <c r="AC80" s="9">
         <f>MEDIAN(AC5:AC79)</f>
         <v>7.5930249580565441</v>
       </c>
-      <c r="AD80" s="10">
+      <c r="AD80" s="9">
         <f t="shared" ref="AD80:AF80" si="3">MEDIAN(AD5:AD79)</f>
         <v>56</v>
       </c>
-      <c r="AE80" s="10">
+      <c r="AE80" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="AF80" s="10">
+      <c r="AF80" s="9">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -13460,19 +13450,19 @@
       <c r="AB81" t="s">
         <v>235</v>
       </c>
-      <c r="AC81" s="10">
+      <c r="AC81" s="9">
         <f>_xlfn.STDEV.P(AC6:AC80)</f>
         <v>2.9348849365101399</v>
       </c>
-      <c r="AD81" s="10">
+      <c r="AD81" s="9">
         <f t="shared" ref="AD81:AF81" si="4">_xlfn.STDEV.P(AD6:AD80)</f>
         <v>22.034778230727433</v>
       </c>
-      <c r="AE81" s="10">
+      <c r="AE81" s="9">
         <f t="shared" si="4"/>
         <v>5.1775469626384893</v>
       </c>
-      <c r="AF81" s="10">
+      <c r="AF81" s="9">
         <f t="shared" si="4"/>
         <v>3.0917587614646056</v>
       </c>
@@ -13482,19 +13472,19 @@
       <c r="AB83" t="s">
         <v>237</v>
       </c>
-      <c r="AC83" s="12">
+      <c r="AC83" s="11">
         <f>SUM(J78:AA78)</f>
         <v>25.987754751789382</v>
       </c>
-      <c r="AD83" s="12">
+      <c r="AD83" s="11">
         <f>SUM(J79:AA79)</f>
         <v>194</v>
       </c>
-      <c r="AE83" s="12">
+      <c r="AE83" s="11">
         <f>SUM(J80:AA80)</f>
         <v>44</v>
       </c>
-      <c r="AF83" s="12">
+      <c r="AF83" s="11">
         <f>SUM(J81:AA81)</f>
         <v>27</v>
       </c>
@@ -13538,7 +13528,7 @@
       <c r="AB90" t="s">
         <v>243</v>
       </c>
-      <c r="AD90" s="13" t="s">
+      <c r="AD90" s="12" t="s">
         <v>248</v>
       </c>
     </row>
@@ -14596,7 +14586,7 @@
       <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0FDB7E-EBD8-485F-9283-9E1C750BA25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88360280-C6FF-4413-86C0-A00E114BEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services clean" sheetId="4" r:id="rId1"/>
-    <sheet name="Services test" sheetId="3" r:id="rId2"/>
-    <sheet name="Privacy values" sheetId="1" r:id="rId3"/>
+    <sheet name="privacy values clean" sheetId="5" r:id="rId2"/>
+    <sheet name="Services test" sheetId="3" r:id="rId3"/>
+    <sheet name="Privacy values" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Services test'!$AD$2:$AD$76</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Services test'!$AE$2:$AE$76</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Services test'!$AE$2:$AE$76</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Services test'!$AD$2:$AD$76</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Services test'!$AC$2:$AC$76</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Services test'!$AF$2:$AF$76</definedName>
   </definedNames>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="252">
   <si>
     <t>Nickname</t>
   </si>
@@ -1234,7 +1235,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1295,7 +1296,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4263,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C522F9-F455-4B38-A565-C6DB8983C156}">
   <dimension ref="A1:AB988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
@@ -8750,6 +8751,493 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E52125-0BEB-4F52-AF5D-6A00A0E48DCD}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F9EBD0-2CFC-417B-A678-6B092CE088D1}">
   <dimension ref="A1:AF989"/>
   <sheetViews>
@@ -14515,12 +15003,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88360280-C6FF-4413-86C0-A00E114BEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9485C6B7-E3D7-4F37-9F9F-F31F809AFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services clean" sheetId="4" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Privacy values" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Services test'!$AE$2:$AE$76</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Services test'!$AC$2:$AC$76</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Services test'!$AD$2:$AD$76</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Services test'!$AC$2:$AC$76</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Services test'!$AF$2:$AF$76</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Services test'!$AF$2:$AF$76</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Services test'!$AE$2:$AE$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -782,25 +782,25 @@
     <t>very high</t>
   </si>
   <si>
-    <t>0-20</t>
-  </si>
-  <si>
-    <t>20-40</t>
-  </si>
-  <si>
-    <t>40-60</t>
-  </si>
-  <si>
-    <t>60-80</t>
-  </si>
-  <si>
-    <t>80-100</t>
-  </si>
-  <si>
     <t>death</t>
   </si>
   <si>
-    <t>100-</t>
+    <t>0-30</t>
+  </si>
+  <si>
+    <t>30-60</t>
+  </si>
+  <si>
+    <t>60-90</t>
+  </si>
+  <si>
+    <t>90-120</t>
+  </si>
+  <si>
+    <t>120-150</t>
+  </si>
+  <si>
+    <t>150-</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1296,7 +1296,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1357,7 +1357,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4264,11 +4264,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C522F9-F455-4B38-A565-C6DB8983C156}">
   <dimension ref="A1:AB988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36:AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="AB2" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AB3" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="AB4" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="AB5" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="AB6" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="AB7" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="AB8" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="AB9" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="AB10" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="AB11" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="AB12" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="AB13" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="AB14" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="AB15" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="AB16" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="AB17" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="AB18" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="AB19" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="AB20" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="AB21" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="AB22" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="AB23" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="AB24" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="AB25" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="AB26" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="AB27" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="AB28" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>68</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="AB29" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="AB30" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="AB31" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="AB32" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="AB33" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="AB34" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="AB35" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="AB36" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>90</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="AB37" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>101</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="AB38" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="AB39" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="AB40" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="AB41" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="AB42" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="AB43" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="AB44" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>78</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="AB45" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="AB46" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="AB47" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="AB48" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="AB49" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="AB50" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="AB51" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="AB52" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="AB53" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="AB54" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="AB55" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="AB56" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="AB57" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="AB58" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="AB59" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="AB60" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="AB61" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="AB62" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="AB63" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="AB64" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="AB65" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AB66" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7234,7 +7234,7 @@
       </c>
       <c r="AB67" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="AB68" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>67</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7330,7 +7330,7 @@
       </c>
       <c r="AB69" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="AB70" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="AB71" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="AB72" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>71</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="AB73" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>79</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="AB74" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>66</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="AB75" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="AB76" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7674,71 +7674,71 @@
       </c>
       <c r="K79" s="7">
         <f>'Privacy values'!C11</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L79" s="7">
         <f>'Privacy values'!D11</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M79" s="7">
         <f>'Privacy values'!E11</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N79" s="7">
         <f>'Privacy values'!F11</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O79" s="7">
         <f>'Privacy values'!G11</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P79" s="7">
         <f>'Privacy values'!H11</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q79" s="7">
         <f>'Privacy values'!I11</f>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="R79" s="7">
         <f>'Privacy values'!J11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S79" s="7">
         <f>'Privacy values'!K11</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T79" s="7">
         <f>'Privacy values'!L11</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="U79" s="7">
         <f>'Privacy values'!M11</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="V79" s="7">
         <f>'Privacy values'!N11</f>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="W79" s="7">
         <f>'Privacy values'!O11</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X79" s="7">
         <f>'Privacy values'!P11</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y79" s="7">
         <f>'Privacy values'!Q11</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Z79" s="7">
         <f>'Privacy values'!R11</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AA79" s="7">
         <f>'Privacy values'!S11</f>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7752,71 +7752,71 @@
       </c>
       <c r="K80" s="7">
         <f>'Privacy values'!C12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L80" s="7">
         <f>'Privacy values'!D12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M80" s="7">
         <f>'Privacy values'!E12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N80" s="7">
         <f>'Privacy values'!F12</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O80" s="7">
         <f>'Privacy values'!G12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P80" s="7">
         <f>'Privacy values'!H12</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q80" s="7">
         <f>'Privacy values'!I12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R80" s="7">
         <f>'Privacy values'!J12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S80" s="7">
         <f>'Privacy values'!K12</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T80" s="7">
         <f>'Privacy values'!L12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U80" s="7">
         <f>'Privacy values'!M12</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V80" s="7">
         <f>'Privacy values'!N12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W80" s="7">
         <f>'Privacy values'!O12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X80" s="7">
         <f>'Privacy values'!P12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y80" s="7">
         <f>'Privacy values'!Q12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z80" s="7">
         <f>'Privacy values'!R12</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA80" s="7">
         <f>'Privacy values'!S12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8754,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E52125-0BEB-4F52-AF5D-6A00A0E48DCD}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8827,37 +8827,37 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -8866,16 +8866,16 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>2</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -8892,19 +8892,19 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8916,25 +8916,25 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
       <c r="R3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -8951,49 +8951,49 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
       <c r="O4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -9004,10 +9004,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -9019,40 +9019,40 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
       <c r="S5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -9081,7 +9081,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -9096,7 +9096,7 @@
         <v>2</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -9105,13 +9105,13 @@
         <v>2</v>
       </c>
       <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
       <c r="S6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -9122,10 +9122,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -9134,13 +9134,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -9152,10 +9152,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -9164,13 +9164,13 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -9181,10 +9181,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -9193,28 +9193,28 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -9223,13 +9223,13 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -9242,10 +9242,10 @@
   <dimension ref="A1:AF989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I80" sqref="I80:AA80"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35:AF39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9412,19 +9412,19 @@
       </c>
       <c r="AC2" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.666442626740622</v>
+        <v>13.23902800962675</v>
       </c>
       <c r="AD2" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="AE2" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="AF2" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -9475,19 +9475,19 @@
       </c>
       <c r="AC3" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.6266903443929586</v>
+        <v>14.041780843837124</v>
       </c>
       <c r="AD3" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="AE3" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AF3" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -9529,19 +9529,19 @@
       </c>
       <c r="AC4" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.56235311306681</v>
+        <v>11.90175823201449</v>
       </c>
       <c r="AD4" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AE4" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AF4" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -9589,19 +9589,19 @@
       </c>
       <c r="AC5" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>9.7307798580667715</v>
+        <v>15.764336314749816</v>
       </c>
       <c r="AD5" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="AE5" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AF5" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -9655,19 +9655,19 @@
       </c>
       <c r="AC6" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>9.7307798580667715</v>
+        <v>15.333489185927871</v>
       </c>
       <c r="AD6" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="AE6" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="AF6" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -9721,19 +9721,19 @@
       </c>
       <c r="AC7" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>13.294300065467214</v>
+        <v>20.555315681398646</v>
       </c>
       <c r="AD7" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="AE7" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AF7" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -9760,19 +9760,19 @@
       </c>
       <c r="AC8" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>3.9564898674888789</v>
+        <v>6.3655534627892152</v>
       </c>
       <c r="AD8" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AE8" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AF8" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -9814,19 +9814,19 @@
       </c>
       <c r="AC9" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>10.559211084967036</v>
+        <v>16.49054693928074</v>
       </c>
       <c r="AD9" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AE9" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AF9" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -9853,19 +9853,19 @@
       </c>
       <c r="AC10" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>1.2190136542044754</v>
+        <v>2.0647823694200036</v>
       </c>
       <c r="AD10" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE10" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -9901,19 +9901,19 @@
       </c>
       <c r="AC11" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>5.1827875340980381</v>
+        <v>7.376004983780577</v>
       </c>
       <c r="AD11" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AE11" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AF11" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -9958,19 +9958,19 @@
       </c>
       <c r="AC12" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.8372085682349493</v>
+        <v>13.598278127980494</v>
       </c>
       <c r="AD12" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="AE12" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AF12" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -10003,19 +10003,19 @@
       </c>
       <c r="AC13" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>5.0126374146673962</v>
+        <v>7.0717042989910324</v>
       </c>
       <c r="AD13" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AE13" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AF13" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -10060,19 +10060,19 @@
       </c>
       <c r="AC14" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.3583160700240953</v>
+        <v>12.392385554573151</v>
       </c>
       <c r="AD14" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="AE14" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AF14" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -10114,19 +10114,19 @@
       </c>
       <c r="AC15" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.088715506615106</v>
+        <v>12.971793238031772</v>
       </c>
       <c r="AD15" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="AE15" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AF15" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -10162,19 +10162,19 @@
       </c>
       <c r="AC16" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>3.5421168220827628</v>
+        <v>5.1679380400385631</v>
       </c>
       <c r="AD16" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AE16" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AF16" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -10216,19 +10216,19 @@
       </c>
       <c r="AC17" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>5.0281111112197117</v>
+        <v>7.376117067386188</v>
       </c>
       <c r="AD17" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AE17" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AF17" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -10264,19 +10264,19 @@
       </c>
       <c r="AC18" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>5.0281111112197117</v>
+        <v>7.376117067386188</v>
       </c>
       <c r="AD18" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AE18" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AF18" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -10318,19 +10318,19 @@
       </c>
       <c r="AC19" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>6.0281111112197108</v>
+        <v>9.4934168728208572</v>
       </c>
       <c r="AD19" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AE19" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AF19" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10366,19 +10366,19 @@
       </c>
       <c r="AC20" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>4.6462063357565748</v>
+        <v>6.8904935109512548</v>
       </c>
       <c r="AD20" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="AE20" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AF20" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10408,19 +10408,19 @@
       </c>
       <c r="AC21" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>2.3231031678782879</v>
+        <v>3.3564907115107498</v>
       </c>
       <c r="AD21" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AE21" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF21" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10450,19 +10450,19 @@
       </c>
       <c r="AC22" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>4.0786980204242269</v>
+        <v>5.6534495128678861</v>
       </c>
       <c r="AD22" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AE22" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AF22" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10495,19 +10495,19 @@
       </c>
       <c r="AC23" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>3.5421168220827628</v>
+        <v>5.1679380400385631</v>
       </c>
       <c r="AD23" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AE23" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AF23" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10543,19 +10543,19 @@
       </c>
       <c r="AC24" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>5.7611304762872386</v>
+        <v>7.9810909531074534</v>
       </c>
       <c r="AD24" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AE24" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AF24" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10615,19 +10615,19 @@
       </c>
       <c r="AC25" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>13.016484803677889</v>
+        <v>22.248396927026992</v>
       </c>
       <c r="AD25" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="AE25" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="AF25" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10681,19 +10681,19 @@
       </c>
       <c r="AC26" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>11.846334684247248</v>
+        <v>20.840006728563633</v>
       </c>
       <c r="AD26" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="AE26" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AF26" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10756,19 +10756,19 @@
       </c>
       <c r="AC27" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>13.283465438610362</v>
+        <v>23.030414319147237</v>
       </c>
       <c r="AD27" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="AE27" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="AF27" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10822,19 +10822,19 @@
       </c>
       <c r="AC28" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>9.1676350643149895</v>
+        <v>17.456913299103483</v>
       </c>
       <c r="AD28" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="AE28" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AF28" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10882,19 +10882,19 @@
       </c>
       <c r="AC29" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>6.8445318964367008</v>
+        <v>14.456141557617659</v>
       </c>
       <c r="AD29" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="AE29" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AF29" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10921,19 +10921,19 @@
       </c>
       <c r="AC30" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>2.7050079433414238</v>
+        <v>4.2729613967676281</v>
       </c>
       <c r="AD30" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AE30" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF30" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10972,19 +10972,19 @@
       </c>
       <c r="AC31" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>3.5421168220827628</v>
+        <v>5.1679380400385631</v>
       </c>
       <c r="AD31" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AE31" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AF31" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11023,19 +11023,19 @@
       </c>
       <c r="AC32" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>5.0281111112197117</v>
+        <v>8.3893273591470443</v>
       </c>
       <c r="AD32" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AE32" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AF32" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11086,19 +11086,19 @@
       </c>
       <c r="AC33" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>10.029913899030259</v>
+        <v>14.190829367154107</v>
       </c>
       <c r="AD33" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AE33" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AF33" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11149,19 +11149,19 @@
       </c>
       <c r="AC34" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>9.3857521644736295</v>
+        <v>15.413940458690984</v>
       </c>
       <c r="AD34" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="AE34" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AF34" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11209,19 +11209,19 @@
       </c>
       <c r="AC35" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>10.980868142777837</v>
+        <v>16.84160511897343</v>
       </c>
       <c r="AD35" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AE35" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AF35" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11278,19 +11278,19 @@
       </c>
       <c r="AC36" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>11.980868142777837</v>
+        <v>17.945694632647243</v>
       </c>
       <c r="AD36" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AE36" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AF36" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11344,19 +11344,19 @@
       </c>
       <c r="AC37" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>13.466862431914784</v>
+        <v>20.153873659994865</v>
       </c>
       <c r="AD37" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="AE37" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AF37" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11395,19 +11395,19 @@
       </c>
       <c r="AC38" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>5.0281111112197117</v>
+        <v>8.3893273591470443</v>
       </c>
       <c r="AD38" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AE38" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AF38" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11458,19 +11458,19 @@
       </c>
       <c r="AC39" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>10.980868142777837</v>
+        <v>16.84160511897343</v>
       </c>
       <c r="AD39" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AE39" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AF39" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11515,19 +11515,19 @@
       </c>
       <c r="AC40" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.4781008175258803</v>
+        <v>12.374724017844493</v>
       </c>
       <c r="AD40" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="AE40" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AF40" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11581,19 +11581,19 @@
       </c>
       <c r="AC41" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>11.708855332351916</v>
+        <v>18.947943258131488</v>
       </c>
       <c r="AD41" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="AE41" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="AF41" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11647,19 +11647,19 @@
       </c>
       <c r="AC42" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>9.207387346662653</v>
+        <v>14.03514989278634</v>
       </c>
       <c r="AD42" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="AE42" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AF42" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11710,19 +11710,19 @@
       </c>
       <c r="AC43" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.0146820158673435</v>
+        <v>13.057312960312291</v>
       </c>
       <c r="AD43" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="AE43" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AF43" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11779,19 +11779,19 @@
       </c>
       <c r="AC44" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>10.489841678147441</v>
+        <v>17.136495929603676</v>
       </c>
       <c r="AD44" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AE44" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="AF44" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11830,19 +11830,19 @@
       </c>
       <c r="AC45" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>5.5646923095611749</v>
+        <v>7.8616285402155111</v>
       </c>
       <c r="AD45" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE45" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF45" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11878,19 +11878,19 @@
       </c>
       <c r="AC46" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>6.6436118672610576</v>
+        <v>10.355662627640879</v>
       </c>
       <c r="AD46" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="AE46" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AF46" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11935,19 +11935,19 @@
       </c>
       <c r="AC47" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.1393024158196212</v>
+        <v>10.966223919345772</v>
       </c>
       <c r="AD47" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="AE47" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AF47" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11989,19 +11989,19 @@
       </c>
       <c r="AC48" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.1393024158196212</v>
+        <v>10.966223919345772</v>
       </c>
       <c r="AD48" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="AE48" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AF48" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12043,19 +12043,19 @@
       </c>
       <c r="AC49" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>6.6027212174781571</v>
+        <v>10.480712446516449</v>
       </c>
       <c r="AD49" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE49" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AF49" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12100,19 +12100,19 @@
       </c>
       <c r="AC50" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.2433919294934324</v>
+        <v>12.257932261436519</v>
       </c>
       <c r="AD50" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE50" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AF50" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12151,19 +12151,19 @@
       </c>
       <c r="AC51" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>6.6687818232349869</v>
+        <v>10.166547174067114</v>
       </c>
       <c r="AD51" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="AE51" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AF51" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12208,19 +12208,19 @@
       </c>
       <c r="AC52" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.4553037927718115</v>
+        <v>13.112654571545562</v>
       </c>
       <c r="AD52" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AE52" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AF52" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12265,19 +12265,19 @@
       </c>
       <c r="AC53" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>9.1928050202889189</v>
+        <v>14.411446944776765</v>
       </c>
       <c r="AD53" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="AE53" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AF53" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12307,19 +12307,19 @@
       </c>
       <c r="AC54" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>3.5421168220827628</v>
+        <v>5.1679380400385631</v>
       </c>
       <c r="AD54" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AE54" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AF54" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12355,19 +12355,19 @@
       </c>
       <c r="AC55" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>4.6462063357565757</v>
+        <v>7.1733952751189545</v>
       </c>
       <c r="AD55" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="AE55" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AF55" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12400,19 +12400,19 @@
       </c>
       <c r="AC56" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>3.5421168220827628</v>
+        <v>5.1679380400385631</v>
       </c>
       <c r="AD56" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AE56" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AF56" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12460,19 +12460,19 @@
       </c>
       <c r="AC57" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.2433919294934324</v>
+        <v>12.257932261436519</v>
       </c>
       <c r="AD57" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE57" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AF57" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12511,19 +12511,19 @@
       </c>
       <c r="AC58" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>6.7573976403564835</v>
+        <v>9.4673900711499801</v>
       </c>
       <c r="AD58" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="AE58" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AF58" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12559,19 +12559,19 @@
       </c>
       <c r="AC59" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.1393024158196212</v>
+        <v>10.966223919345772</v>
       </c>
       <c r="AD59" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="AE59" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AF59" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12616,19 +12616,19 @@
       </c>
       <c r="AC60" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>6.7573976403564853</v>
+        <v>9.3194447064957355</v>
       </c>
       <c r="AD60" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="AE60" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AF60" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12664,19 +12664,19 @@
       </c>
       <c r="AC61" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>5.6533081266826724</v>
+        <v>7.7448346002372901</v>
       </c>
       <c r="AD61" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AE61" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF61" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12715,19 +12715,19 @@
       </c>
       <c r="AC62" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.1393024158196212</v>
+        <v>10.966223919345772</v>
       </c>
       <c r="AD62" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="AE62" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AF62" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12766,19 +12766,19 @@
       </c>
       <c r="AC63" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.3583160700240953</v>
+        <v>12.392385554573151</v>
       </c>
       <c r="AD63" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="AE63" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AF63" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12820,19 +12820,19 @@
       </c>
       <c r="AC64" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.5930249580565432</v>
+        <v>12.078330182159178</v>
       </c>
       <c r="AD64" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="AE64" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AF64" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12886,19 +12886,19 @@
       </c>
       <c r="AC65" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.96409510666283</v>
+        <v>15.448167972298727</v>
       </c>
       <c r="AD65" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="AE65" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AF65" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12937,19 +12937,19 @@
       </c>
       <c r="AC66" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.8600055929890154</v>
+        <v>14.304404994862228</v>
       </c>
       <c r="AD66" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="AE66" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AF66" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13003,19 +13003,19 @@
       </c>
       <c r="AC67" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>10.183108760867306</v>
+        <v>17.305176736348052</v>
       </c>
       <c r="AD67" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AE67" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AF67" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13066,19 +13066,19 @@
       </c>
       <c r="AC68" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>9.079019247193493</v>
+        <v>15.58262126543536</v>
       </c>
       <c r="AD68" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="AE68" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AF68" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13123,19 +13123,19 @@
       </c>
       <c r="AC69" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>9.8012039854041682</v>
+        <v>15.375495759330317</v>
       </c>
       <c r="AD69" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="AE69" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AF69" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13180,19 +13180,19 @@
       </c>
       <c r="AC70" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.5930249580565441</v>
+        <v>12.361231946326878</v>
       </c>
       <c r="AD70" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AE70" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AF70" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13243,19 +13243,19 @@
       </c>
       <c r="AC71" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.6971144717303552</v>
+        <v>14.08378741723957</v>
       </c>
       <c r="AD71" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="AE71" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="AF71" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13309,19 +13309,19 @@
       </c>
       <c r="AC72" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>9.5006763050042906</v>
+        <v>15.696339116481862</v>
       </c>
       <c r="AD72" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="AE72" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AF72" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13375,19 +13375,19 @@
       </c>
       <c r="AC73" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>10.604765818678104</v>
+        <v>17.656234916040741</v>
       </c>
       <c r="AD73" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AE73" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AF73" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13438,19 +13438,19 @@
       </c>
       <c r="AC74" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>8.9640951066628283</v>
+        <v>15.879015101120672</v>
       </c>
       <c r="AD74" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="AE74" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AF74" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13489,19 +13489,19 @@
       </c>
       <c r="AC75" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>7.8600055929890154</v>
+        <v>14.304404994862228</v>
       </c>
       <c r="AD75" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="AE75" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AF75" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13531,19 +13531,19 @@
       </c>
       <c r="AC76" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$78:$AA$78)</f>
-        <v>3.7839275010413069</v>
+        <v>7.1522811774934283</v>
       </c>
       <c r="AD76" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$79:$AA$79)</f>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="AE76" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$80:$AA$80)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AF76" s="4">
         <f>SUMPRODUCT(Table_1[[#This Row],[Nickname]:[Sexual preferences]],$J$81:$AA$81)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13552,19 +13552,19 @@
       </c>
       <c r="AC77" s="9">
         <f>MAX(AC2:AC76)</f>
-        <v>13.466862431914784</v>
+        <v>23.030414319147237</v>
       </c>
       <c r="AD77" s="9">
         <f t="shared" ref="AD77:AF77" si="0">MAX(AD2:AD76)</f>
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="AE77" s="9">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="AF77" s="9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13578,90 +13578,90 @@
       </c>
       <c r="K78" s="7">
         <f>'Privacy values'!C10</f>
-        <v>1.2190136542044754</v>
+        <v>1.8114473285278132</v>
       </c>
       <c r="L78" s="7">
         <f>'Privacy values'!D10</f>
-        <v>1.2190136542044754</v>
+        <v>1.8114473285278132</v>
       </c>
       <c r="M78" s="7">
         <f>'Privacy values'!E10</f>
-        <v>1.1040895136738123</v>
+        <v>1.5746101062584457</v>
       </c>
       <c r="N78" s="7">
         <f>'Privacy values'!F10</f>
-        <v>1.2190136542044754</v>
+        <v>1.4261616352273789</v>
       </c>
       <c r="O78" s="7">
         <f>'Privacy values'!G10</f>
-        <v>1.4859942891369484</v>
+        <v>2.2081790273476245</v>
       </c>
       <c r="P78" s="7">
         <f>'Privacy values'!H10</f>
-        <v>1.2190136542044754</v>
+        <v>2.0647823694200036</v>
       </c>
       <c r="Q78" s="7">
         <f>'Privacy values'!I10</f>
-        <v>1.4859942891369484</v>
+        <v>3.2213893191084817</v>
       </c>
       <c r="R78" s="7">
         <f>'Privacy values'!J10</f>
-        <v>1</v>
+        <v>1.1040895136738123</v>
       </c>
       <c r="S78" s="7">
         <f>'Privacy values'!K10</f>
-        <v>1.1040895136738123</v>
+        <v>1.7225554709126913</v>
       </c>
       <c r="T78" s="7">
         <f>'Privacy values'!L10</f>
-        <v>1.5746101062584457</v>
+        <v>2.0913850873694031</v>
       </c>
       <c r="U78" s="7">
         <f>'Privacy values'!M10</f>
-        <v>1.5746101062584457</v>
+        <v>2.9946807841156105</v>
       </c>
       <c r="V78" s="7">
         <f>'Privacy values'!N10</f>
-        <v>1.3459001926323562</v>
+        <v>3.2760514795456119</v>
       </c>
       <c r="W78" s="7">
         <f>'Privacy values'!O10</f>
-        <v>1.1040895136738123</v>
+        <v>1.2917083420907465</v>
       </c>
       <c r="X78" s="7">
         <f>'Privacy values'!P10</f>
-        <v>1.6406707120152757</v>
+        <v>1.7772198149200693</v>
       </c>
       <c r="Y78" s="7">
         <f>'Privacy values'!Q10</f>
-        <v>2.7374762132844035</v>
+        <v>4.300771093369212</v>
       </c>
       <c r="Z78" s="7">
         <f>'Privacy values'!R10</f>
-        <v>1.5746101062584457</v>
+        <v>4.082471061015748</v>
       </c>
       <c r="AA78" s="7">
         <f>'Privacy values'!S10</f>
-        <v>2.379565578968772</v>
+        <v>4.9566003770558593</v>
       </c>
       <c r="AB78" t="s">
         <v>234</v>
       </c>
       <c r="AC78" s="9">
         <f>MIN(AC2:AC76)</f>
-        <v>1.2190136542044754</v>
+        <v>2.0647823694200036</v>
       </c>
       <c r="AD78" s="9">
         <f t="shared" ref="AD78:AF78" si="1">MIN(AD2:AD76)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE78" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF78" s="9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13675,90 +13675,90 @@
       </c>
       <c r="K79" s="7">
         <f>'Privacy values'!C11</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L79" s="7">
         <f>'Privacy values'!D11</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M79" s="7">
         <f>'Privacy values'!E11</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N79" s="7">
         <f>'Privacy values'!F11</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O79" s="7">
         <f>'Privacy values'!G11</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P79" s="7">
         <f>'Privacy values'!H11</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q79" s="7">
         <f>'Privacy values'!I11</f>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="R79" s="7">
         <f>'Privacy values'!J11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S79" s="7">
         <f>'Privacy values'!K11</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T79" s="7">
         <f>'Privacy values'!L11</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="U79" s="7">
         <f>'Privacy values'!M11</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="V79" s="7">
         <f>'Privacy values'!N11</f>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="W79" s="7">
         <f>'Privacy values'!O11</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X79" s="7">
         <f>'Privacy values'!P11</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y79" s="7">
         <f>'Privacy values'!Q11</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Z79" s="7">
         <f>'Privacy values'!R11</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AA79" s="7">
         <f>'Privacy values'!S11</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AB79" t="s">
         <v>26</v>
       </c>
       <c r="AC79" s="9">
         <f>GEOMEAN(AC2:AC76)</f>
-        <v>7.0051105610094488</v>
+        <v>11.009469060681214</v>
       </c>
       <c r="AD79" s="9">
         <f t="shared" ref="AD79:AF79" si="2">GEOMEAN(AD2:AD76)</f>
-        <v>52.286969945621912</v>
+        <v>89.098817628330281</v>
       </c>
       <c r="AE79" s="9">
         <f t="shared" si="2"/>
-        <v>12.068861269491313</v>
+        <v>27.028995936490325</v>
       </c>
       <c r="AF79" s="9">
         <f t="shared" si="2"/>
-        <v>6.7264063004347427</v>
+        <v>9.7063514033144198</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13772,90 +13772,90 @@
       </c>
       <c r="K80" s="7">
         <f>'Privacy values'!C12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L80" s="7">
         <f>'Privacy values'!D12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M80" s="7">
         <f>'Privacy values'!E12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N80" s="7">
         <f>'Privacy values'!F12</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O80" s="7">
         <f>'Privacy values'!G12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P80" s="7">
         <f>'Privacy values'!H12</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q80" s="7">
         <f>'Privacy values'!I12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R80" s="7">
         <f>'Privacy values'!J12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S80" s="7">
         <f>'Privacy values'!K12</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T80" s="7">
         <f>'Privacy values'!L12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U80" s="7">
         <f>'Privacy values'!M12</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V80" s="7">
         <f>'Privacy values'!N12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W80" s="7">
         <f>'Privacy values'!O12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X80" s="7">
         <f>'Privacy values'!P12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y80" s="7">
         <f>'Privacy values'!Q12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z80" s="7">
         <f>'Privacy values'!R12</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA80" s="7">
         <f>'Privacy values'!S12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB80" t="s">
         <v>233</v>
       </c>
       <c r="AC80" s="9">
         <f>MEDIAN(AC5:AC79)</f>
-        <v>7.5930249580565441</v>
+        <v>12.361231946326878</v>
       </c>
       <c r="AD80" s="9">
         <f t="shared" ref="AD80:AF80" si="3">MEDIAN(AD5:AD79)</f>
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="AE80" s="9">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AF80" s="9">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="9:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13869,11 +13869,11 @@
       </c>
       <c r="K81" s="7">
         <f>'Privacy values'!C13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81" s="7">
         <f>'Privacy values'!D13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81" s="7">
         <f>'Privacy values'!E13</f>
@@ -13889,11 +13889,11 @@
       </c>
       <c r="P81" s="7">
         <f>'Privacy values'!H13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q81" s="7">
         <f>'Privacy values'!I13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R81" s="7">
         <f>'Privacy values'!J13</f>
@@ -13909,11 +13909,11 @@
       </c>
       <c r="U81" s="7">
         <f>'Privacy values'!M13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V81" s="7">
         <f>'Privacy values'!N13</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W81" s="7">
         <f>'Privacy values'!O13</f>
@@ -13921,38 +13921,38 @@
       </c>
       <c r="X81" s="7">
         <f>'Privacy values'!P13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y81" s="7">
         <f>'Privacy values'!Q13</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z81" s="7">
         <f>'Privacy values'!R13</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA81" s="7">
         <f>'Privacy values'!S13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB81" t="s">
         <v>235</v>
       </c>
       <c r="AC81" s="9">
         <f>_xlfn.STDEV.P(AC6:AC80)</f>
-        <v>2.9348849365101399</v>
+        <v>4.9970108801642246</v>
       </c>
       <c r="AD81" s="9">
         <f t="shared" ref="AD81:AF81" si="4">_xlfn.STDEV.P(AD6:AD80)</f>
-        <v>22.034778230727433</v>
+        <v>40.052470475767883</v>
       </c>
       <c r="AE81" s="9">
         <f t="shared" si="4"/>
-        <v>5.1775469626384893</v>
+        <v>11.124720561049914</v>
       </c>
       <c r="AF81" s="9">
         <f t="shared" si="4"/>
-        <v>3.0917587614646056</v>
+        <v>4.3529460894314527</v>
       </c>
     </row>
     <row r="82" spans="9:32" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -13962,19 +13962,19 @@
       </c>
       <c r="AC83" s="11">
         <f>SUM(J78:AA78)</f>
-        <v>25.987754751789382</v>
+        <v>42.715550138486314</v>
       </c>
       <c r="AD83" s="11">
         <f>SUM(J79:AA79)</f>
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="AE83" s="11">
         <f>SUM(J80:AA80)</f>
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AF83" s="11">
         <f>SUM(J81:AA81)</f>
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13993,7 +13993,7 @@
         <v>241</v>
       </c>
       <c r="AD87" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14001,7 +14001,7 @@
         <v>240</v>
       </c>
       <c r="AD88" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14009,7 +14009,7 @@
         <v>242</v>
       </c>
       <c r="AD89" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14017,7 +14017,7 @@
         <v>243</v>
       </c>
       <c r="AD90" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14025,12 +14025,12 @@
         <v>244</v>
       </c>
       <c r="AD91" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB92" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AD92" s="4" t="s">
         <v>251</v>
@@ -15014,6 +15014,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -15084,37 +15085,37 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -15123,16 +15124,16 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>2</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -15149,19 +15150,19 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -15173,25 +15174,25 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
       <c r="R3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -15208,49 +15209,49 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
       <c r="O4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -15261,10 +15262,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -15276,40 +15277,40 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
       <c r="S5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -15338,7 +15339,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -15353,7 +15354,7 @@
         <v>2</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -15362,13 +15363,13 @@
         <v>2</v>
       </c>
       <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
       <c r="S6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -15379,10 +15380,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -15391,13 +15392,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -15409,10 +15410,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -15421,13 +15422,13 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -15438,10 +15439,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -15450,28 +15451,28 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -15480,13 +15481,13 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -15504,75 +15505,75 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:S10" si="0">GEOMEAN(C2:C8)</f>
-        <v>1.2190136542044754</v>
+        <v>1.8114473285278132</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>1.2190136542044754</v>
+        <v>1.8114473285278132</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>1.1040895136738123</v>
+        <v>1.5746101062584457</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>1.2190136542044754</v>
+        <v>1.4261616352273789</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>1.4859942891369484</v>
+        <v>2.2081790273476245</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>1.2190136542044754</v>
+        <v>2.0647823694200036</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>1.4859942891369484</v>
+        <v>3.2213893191084817</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1040895136738123</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>1.1040895136738123</v>
+        <v>1.7225554709126913</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>1.5746101062584457</v>
+        <v>2.0913850873694031</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="0"/>
-        <v>1.5746101062584457</v>
+        <v>2.9946807841156105</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>1.3459001926323562</v>
+        <v>3.2760514795456119</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>1.1040895136738123</v>
+        <v>1.2917083420907465</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="0"/>
-        <v>1.6406707120152757</v>
+        <v>1.7772198149200693</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="0"/>
-        <v>2.7374762132844035</v>
+        <v>4.300771093369212</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="0"/>
-        <v>1.5746101062584457</v>
+        <v>4.082471061015748</v>
       </c>
       <c r="S10" s="3">
         <f t="shared" si="0"/>
-        <v>2.379565578968772</v>
+        <v>4.9566003770558593</v>
       </c>
       <c r="T10" s="3">
         <f>SUM(B10:S10)</f>
-        <v>25.987754751789382</v>
+        <v>42.715550138486314</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -15585,75 +15586,75 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:S11" si="1">SUM(C2:C8)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" ref="T11:T13" si="2">SUM(B11:S11)</f>
-        <v>194</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -15666,75 +15667,75 @@
       </c>
       <c r="C12">
         <f t="shared" ref="C12:S12" si="3">MAX(C2:C8)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S12">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -15747,11 +15748,11 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:S13" si="4">MEDIAN(C2:C8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
@@ -15767,11 +15768,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
@@ -15787,11 +15788,11 @@
       </c>
       <c r="M13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <f t="shared" si="4"/>
@@ -15799,23 +15800,23 @@
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S13">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">

--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9485C6B7-E3D7-4F37-9F9F-F31F809AFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53E306E-2DCA-49BF-B9E0-F7C710AA17DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services clean" sheetId="4" r:id="rId1"/>
@@ -993,11 +993,11 @@
     <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
-    <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="20% - Énfasis1" xfId="5" builtinId="30"/>
+    <cellStyle name="60% - Énfasis5" xfId="6" builtinId="48"/>
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{D188F44A-CEAC-484B-9B6D-FABDEF7BDE4D}"/>
   </cellStyles>
@@ -3654,8 +3654,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="20497800" y="12368212"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="21099780" y="12135802"/>
+              <a:ext cx="4714875" cy="2716530"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3674,9 +3674,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3732,8 +3732,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="20507325" y="15282862"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="21109305" y="15021877"/>
+              <a:ext cx="4714875" cy="2718435"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3752,9 +3752,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3810,8 +3810,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25312687" y="12377737"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="26057542" y="12145327"/>
+              <a:ext cx="4714875" cy="2716530"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3830,9 +3830,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3888,8 +3888,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25274587" y="15282862"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="26019442" y="15021877"/>
+              <a:ext cx="4714875" cy="2718435"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3908,9 +3908,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3937,9 +3937,9 @@
     <tableColumn id="7" xr3:uid="{2C109460-A010-42B0-B597-719C0EF28FCE}" name="min mask"/>
     <tableColumn id="8" xr3:uid="{D95E38A3-188B-4D0C-BE99-405B58B1D6FA}" name="extra sec"/>
     <tableColumn id="9" xr3:uid="{A0B86E98-0A97-42AE-9DE7-DCCF39E4D0C8}" name="2fa"/>
-    <tableColumn id="26" xr3:uid="{99CC9E9B-F8DE-4433-941C-1A1926D131DF}" name="Nickname" dataCellStyle="Bad"/>
+    <tableColumn id="26" xr3:uid="{99CC9E9B-F8DE-4433-941C-1A1926D131DF}" name="Nickname"/>
     <tableColumn id="10" xr3:uid="{AA134BF8-3E33-4893-8D4D-32BD32003342}" name="Name"/>
-    <tableColumn id="27" xr3:uid="{D3E428DB-F581-4F5E-97CE-B5C7A0BF3912}" name="Surname" dataCellStyle="Bad"/>
+    <tableColumn id="27" xr3:uid="{D3E428DB-F581-4F5E-97CE-B5C7A0BF3912}" name="Surname"/>
     <tableColumn id="11" xr3:uid="{B3FAEC06-BE2C-4A56-B6E4-7EB7DC816018}" name="birth date"/>
     <tableColumn id="12" xr3:uid="{D07727E4-65BA-4A06-8305-CB34AE0C7E6B}" name="gender"/>
     <tableColumn id="13" xr3:uid="{B0D2F9AE-1AB3-4C9B-B79F-A0D8487A7124}" name="Profile photo"/>
@@ -3948,7 +3948,7 @@
     <tableColumn id="16" xr3:uid="{5B732028-B9D2-424B-A4BA-6D55F72915C4}" name="nacionality"/>
     <tableColumn id="17" xr3:uid="{5E30B691-4736-4B7E-8A14-C8E9C4CE3EB0}" name="location"/>
     <tableColumn id="18" xr3:uid="{E0EB68F5-2F58-4588-B8A5-BDD157C5A43B}" name="address"/>
-    <tableColumn id="31" xr3:uid="{838746F4-85F7-436A-935A-C328BD52C7AB}" name="Photos" dataCellStyle="Bad"/>
+    <tableColumn id="31" xr3:uid="{838746F4-85F7-436A-935A-C328BD52C7AB}" name="Photos"/>
     <tableColumn id="19" xr3:uid="{2F9AFFDC-06F4-46CE-8B09-1E3AB11FB27F}" name="Messages"/>
     <tableColumn id="20" xr3:uid="{CC102357-8ABD-4B62-9A2C-8615EA74B057}" name="subscription"/>
     <tableColumn id="21" xr3:uid="{9A8F6B4C-580A-454D-A45F-531D0093D8CB}" name="purchases"/>
@@ -3975,9 +3975,9 @@
     <tableColumn id="7" xr3:uid="{C48BE560-1D71-484A-993B-D1B6CAEBC009}" name="min mask"/>
     <tableColumn id="8" xr3:uid="{A1CACA65-4A34-470D-888E-BF6D00D2EDA7}" name="extra sec"/>
     <tableColumn id="9" xr3:uid="{714A2623-94A5-4AA4-93C4-705AA6E9BDE8}" name="2fa"/>
-    <tableColumn id="26" xr3:uid="{E45466B1-56A9-406F-8315-FFAC30740C32}" name="Nickname" dataCellStyle="Bad"/>
+    <tableColumn id="26" xr3:uid="{E45466B1-56A9-406F-8315-FFAC30740C32}" name="Nickname"/>
     <tableColumn id="10" xr3:uid="{14F7D85F-55EC-49A8-AAF8-FBFDAFE829EF}" name="Name"/>
-    <tableColumn id="27" xr3:uid="{3EBDD9F8-22D2-428B-B188-933AA1159D5C}" name="Surname" dataCellStyle="Bad"/>
+    <tableColumn id="27" xr3:uid="{3EBDD9F8-22D2-428B-B188-933AA1159D5C}" name="Surname"/>
     <tableColumn id="11" xr3:uid="{7086BE79-A07A-4FEC-9570-F13DAD5BE1B6}" name="birth date"/>
     <tableColumn id="12" xr3:uid="{3382374F-23DB-4D2B-BC9C-062FB322ACE9}" name="gender"/>
     <tableColumn id="13" xr3:uid="{0C29866B-C3FC-4DDA-91CE-A3D958FBE297}" name="Profile photo"/>
@@ -3986,7 +3986,7 @@
     <tableColumn id="16" xr3:uid="{BB8707FD-2779-4B28-BCDF-35D9B5923C8D}" name="nacionality"/>
     <tableColumn id="17" xr3:uid="{A1B54E5E-90DF-406A-B569-57132CFCC617}" name="location"/>
     <tableColumn id="18" xr3:uid="{CD95119C-7A4A-42C3-9EC3-52E878429065}" name="address"/>
-    <tableColumn id="31" xr3:uid="{E0DB3F00-7A59-4689-9E01-7620969960AC}" name="Photos" dataCellStyle="Bad"/>
+    <tableColumn id="31" xr3:uid="{E0DB3F00-7A59-4689-9E01-7620969960AC}" name="Photos"/>
     <tableColumn id="19" xr3:uid="{6D279B90-8B6A-4969-AA25-549CB632101F}" name="Messages"/>
     <tableColumn id="20" xr3:uid="{ED04A4C0-FB40-44A6-83DA-2CC6D398451E}" name="subscription"/>
     <tableColumn id="21" xr3:uid="{E5146E0C-0CB1-4A72-8CC4-D894B22246AB}" name="purchases"/>
@@ -4264,41 +4264,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C522F9-F455-4B38-A565-C6DB8983C156}">
   <dimension ref="A1:AB988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C36" sqref="C36:AB37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="4" customWidth="1"/>
-    <col min="14" max="18" width="8.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="4" customWidth="1"/>
-    <col min="25" max="27" width="8.5703125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="14.42578125" style="4"/>
+    <col min="8" max="8" width="10.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="4" customWidth="1"/>
+    <col min="14" max="18" width="8.88671875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="4" customWidth="1"/>
+    <col min="25" max="27" width="8.5546875" style="4" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>84</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>86</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>90</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>94</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>102</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>108</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>110</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>113</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>117</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>120</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>126</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>136</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>140</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>142</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>145</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>148</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>151</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>153</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>155</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>157</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>161</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>164</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>168</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>170</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>173</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>177</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>180</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>182</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>185</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>187</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>189</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>192</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>194</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>196</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>198</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>200</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>203</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>205</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>208</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>210</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>212</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>214</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>216</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>218</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>222</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>225</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>227</v>
       </c>
@@ -7657,13 +7657,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I79" s="7" t="str">
         <f>'Privacy values'!A11</f>
         <v>sum</v>
@@ -7741,7 +7741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I80" s="7" t="str">
         <f>'Privacy values'!A12</f>
         <v>max</v>
@@ -7819,916 +7819,916 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB89" s="12"/>
     </row>
-    <row r="90" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="AB2:AB77">
     <cfRule type="colorScale" priority="3">
@@ -8754,13 +8754,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E52125-0BEB-4F52-AF5D-6A00A0E48DCD}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -8875,10 +8875,10 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>3</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P4">
         <v>7</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -9111,10 +9111,10 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -9170,10 +9170,10 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>5</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -9248,34 +9248,34 @@
       <selection pane="bottomRight" activeCell="A35" sqref="A35:AF39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="4" customWidth="1"/>
-    <col min="14" max="18" width="8.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="4" customWidth="1"/>
-    <col min="25" max="27" width="8.5703125" style="4" customWidth="1"/>
-    <col min="29" max="30" width="8.85546875" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="14.42578125" style="4"/>
+    <col min="8" max="8" width="10.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="4" customWidth="1"/>
+    <col min="14" max="18" width="8.88671875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="4" customWidth="1"/>
+    <col min="25" max="27" width="8.5546875" style="4" customWidth="1"/>
+    <col min="29" max="30" width="8.88671875" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>84</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>86</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>90</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>94</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>102</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>108</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>110</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>113</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>117</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>120</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>126</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>136</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>140</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>142</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>145</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>148</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>151</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>153</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>155</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>157</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>161</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>164</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>168</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>170</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>173</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>177</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>180</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>182</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>185</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>187</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>189</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>192</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>194</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>196</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>198</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>200</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>203</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>205</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>208</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>210</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>212</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>214</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>216</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>218</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>222</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>225</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>227</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AB77" t="s">
         <v>232</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I78" s="7" t="str">
         <f>'Privacy values'!A10</f>
         <v>mean</v>
@@ -13664,7 +13664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I79" s="7" t="str">
         <f>'Privacy values'!A11</f>
         <v>sum</v>
@@ -13761,7 +13761,7 @@
         <v>9.7063514033144198</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I80" s="7" t="str">
         <f>'Privacy values'!A12</f>
         <v>max</v>
@@ -13858,7 +13858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="9:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I81" s="7" t="str">
         <f>'Privacy values'!A13</f>
         <v>median</v>
@@ -13955,8 +13955,8 @@
         <v>4.3529460894314527</v>
       </c>
     </row>
-    <row r="82" spans="9:32" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:32" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB83" t="s">
         <v>237</v>
       </c>
@@ -13977,18 +13977,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE85" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB86" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB87" t="s">
         <v>241</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB88" t="s">
         <v>240</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB89" t="s">
         <v>242</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB90" t="s">
         <v>243</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB91" t="s">
         <v>244</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB92" t="s">
         <v>245</v>
       </c>
@@ -14036,903 +14036,903 @@
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="AC1:AC76 AC92:AC1048576">
     <cfRule type="colorScale" priority="4">
@@ -15011,13 +15011,13 @@
       <selection sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -15077,7 +15077,7 @@
       </c>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -15490,12 +15490,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>42.715550138486314</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>233</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R15" t="s">
         <v>236</v>
       </c>

--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roise\Documents\Apam ciber\leaks\services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53E306E-2DCA-49BF-B9E0-F7C710AA17DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6ABD64-C7AE-4933-A826-650286D0EB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services clean" sheetId="4" r:id="rId1"/>
@@ -21,8 +21,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Services test'!$AC$2:$AC$76</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Services test'!$AD$2:$AD$76</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Services test'!$AF$2:$AF$76</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Services test'!$AE$2:$AE$76</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Services test'!$AE$2:$AE$76</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Services test'!$AF$2:$AF$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -993,11 +993,11 @@
     <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20% - Énfasis1" xfId="5" builtinId="30"/>
-    <cellStyle name="60% - Énfasis5" xfId="6" builtinId="48"/>
-    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
-    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
+    <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{D188F44A-CEAC-484B-9B6D-FABDEF7BDE4D}"/>
   </cellStyles>
@@ -1296,7 +1296,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1357,7 +1357,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3654,8 +3654,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21099780" y="12135802"/>
-              <a:ext cx="4714875" cy="2716530"/>
+              <a:off x="20497800" y="12368212"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3674,9 +3674,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="es-ES" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3732,8 +3732,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21109305" y="15021877"/>
-              <a:ext cx="4714875" cy="2718435"/>
+              <a:off x="20507325" y="15282862"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3752,9 +3752,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="es-ES" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3810,8 +3810,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26057542" y="12145327"/>
-              <a:ext cx="4714875" cy="2716530"/>
+              <a:off x="25312687" y="12377737"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3830,9 +3830,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="es-ES" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3888,8 +3888,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26019442" y="15021877"/>
-              <a:ext cx="4714875" cy="2718435"/>
+              <a:off x="25274587" y="15282862"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3908,9 +3908,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="es-ES" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4271,34 +4271,34 @@
       <selection pane="bottomRight" activeCell="C36" sqref="C36:AB37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="4" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="4" customWidth="1"/>
-    <col min="14" max="18" width="8.88671875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="4" customWidth="1"/>
-    <col min="25" max="27" width="8.5546875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="14.44140625" style="4"/>
+    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="4" customWidth="1"/>
+    <col min="14" max="18" width="8.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="4" customWidth="1"/>
+    <col min="25" max="27" width="8.5703125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:28" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>84</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>86</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>90</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>94</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>102</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>108</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>110</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>113</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>117</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>120</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>126</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>136</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>140</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>142</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>145</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>148</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>151</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>153</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>155</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>157</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>161</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>164</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>168</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>170</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>173</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>177</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>180</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>182</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>185</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>187</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>189</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>192</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>194</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>196</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>198</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>200</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>203</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>205</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>208</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>210</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>212</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>214</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>216</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>218</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>222</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>225</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>227</v>
       </c>
@@ -7657,13 +7657,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I79" s="7" t="str">
         <f>'Privacy values'!A11</f>
         <v>sum</v>
@@ -7741,7 +7741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I80" s="7" t="str">
         <f>'Privacy values'!A12</f>
         <v>max</v>
@@ -7819,916 +7819,916 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB89" s="12"/>
     </row>
-    <row r="90" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="28:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="AB2:AB77">
     <cfRule type="colorScale" priority="3">
@@ -8755,22 +8755,22 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -8797,7 +8797,7 @@
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -8819,7 +8819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -9242,40 +9242,40 @@
   <dimension ref="A1:AF989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35:AF39"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="4" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="4" customWidth="1"/>
-    <col min="14" max="18" width="8.88671875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="4" customWidth="1"/>
-    <col min="25" max="27" width="8.5546875" style="4" customWidth="1"/>
-    <col min="29" max="30" width="8.88671875" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="14.44140625" style="4"/>
+    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="4" customWidth="1"/>
+    <col min="14" max="18" width="8.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="4" customWidth="1"/>
+    <col min="25" max="27" width="8.5703125" style="4" customWidth="1"/>
+    <col min="29" max="30" width="8.85546875" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:32" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>84</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>86</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>88</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>90</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>94</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>102</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>108</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>110</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>113</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>117</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>120</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>126</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>136</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>140</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>142</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>145</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>148</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>151</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>153</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>155</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>157</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>161</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>164</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>168</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>170</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>173</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>177</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>180</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>182</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>185</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>187</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>189</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>192</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>194</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>196</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>198</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>200</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>203</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>205</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>208</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>210</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>212</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>214</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>216</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>218</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>222</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>225</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>227</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB77" t="s">
         <v>232</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I78" s="7" t="str">
         <f>'Privacy values'!A10</f>
         <v>mean</v>
@@ -13664,7 +13664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I79" s="7" t="str">
         <f>'Privacy values'!A11</f>
         <v>sum</v>
@@ -13761,7 +13761,7 @@
         <v>9.7063514033144198</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I80" s="7" t="str">
         <f>'Privacy values'!A12</f>
         <v>max</v>
@@ -13858,7 +13858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="9:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:32" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I81" s="7" t="str">
         <f>'Privacy values'!A13</f>
         <v>median</v>
@@ -13955,8 +13955,8 @@
         <v>4.3529460894314527</v>
       </c>
     </row>
-    <row r="82" spans="9:32" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:32" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB83" t="s">
         <v>237</v>
       </c>
@@ -13977,18 +13977,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE85" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB86" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB87" t="s">
         <v>241</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB88" t="s">
         <v>240</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB89" t="s">
         <v>242</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB90" t="s">
         <v>243</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB91" t="s">
         <v>244</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB92" t="s">
         <v>245</v>
       </c>
@@ -14036,903 +14036,903 @@
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="9:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="AC1:AC76 AC92:AC1048576">
     <cfRule type="colorScale" priority="4">
@@ -15008,16 +15008,16 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -15077,7 +15077,7 @@
       </c>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -15490,12 +15490,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>42.715550138486314</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>233</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R15" t="s">
         <v>236</v>
       </c>

--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56794841-BC05-4908-A3CF-BB1D16A8A7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9B869F-ED4E-428F-A153-90FB4CD11E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="6240" windowWidth="20880" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services clean" sheetId="4" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Privacy values" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Services test'!$AG$2:$AG$75</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Services test'!$AF$2:$AF$75</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Services test'!$AD$2:$AD$75</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Services test'!$AG$2:$AG$75</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Services test'!$AE$2:$AE$75</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Services test'!$AD$2:$AD$75</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Services test'!$AF$2:$AF$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -755,22 +755,22 @@
     <t>gog.com</t>
   </si>
   <si>
-    <t>250-</t>
-  </si>
-  <si>
-    <t>0-50</t>
-  </si>
-  <si>
-    <t>50-100</t>
-  </si>
-  <si>
-    <t>100-150</t>
-  </si>
-  <si>
-    <t>150-200</t>
-  </si>
-  <si>
-    <t>200-250</t>
+    <t>0-30</t>
+  </si>
+  <si>
+    <t>30-60</t>
+  </si>
+  <si>
+    <t>60-90</t>
+  </si>
+  <si>
+    <t>90-120</t>
+  </si>
+  <si>
+    <t>120-150</t>
+  </si>
+  <si>
+    <t>150-</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1214,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1336,7 +1336,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1397,7 +1397,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4305,11 +4305,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C522F9-F455-4B38-A565-C6DB8983C156}">
   <dimension ref="A1:AF987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB81" sqref="AB81"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10438,11 +10438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F9EBD0-2CFC-417B-A678-6B092CE088D1}">
   <dimension ref="A1:AI988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH74" sqref="AH74"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16368,7 +16368,7 @@
         <v>226</v>
       </c>
       <c r="AE86" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16376,7 +16376,7 @@
         <v>225</v>
       </c>
       <c r="AE87" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16384,7 +16384,7 @@
         <v>227</v>
       </c>
       <c r="AE88" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16392,7 +16392,7 @@
         <v>228</v>
       </c>
       <c r="AE89" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16400,7 +16400,7 @@
         <v>229</v>
       </c>
       <c r="AE90" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16408,7 +16408,7 @@
         <v>230</v>
       </c>
       <c r="AE91" s="13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B9913-924B-4FC9-91CA-C1AED4D34E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7F362B-2E12-4E1C-90C8-B981C1DF5CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,10 @@
     <sheet name="Privacy values" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Services sum test'!$AF$2:$AF$75</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Services sum test'!$AE$2:$AE$75</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Services sum test'!$AG$2:$AG$75</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Services sum test'!$AD$2:$AD$75</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Services risk test'!$AF$2:$AF$75</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Services risk test'!$AG$2:$AG$75</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Services sum test'!$AG$2:$AG$75</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Services sum test'!$AF$2:$AF$75</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Services sum test'!$AD$2:$AD$75</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Services sum test'!$AE$2:$AE$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="245">
   <si>
     <t>Nickname</t>
   </si>
@@ -778,6 +776,12 @@
   <si>
     <t>S</t>
   </si>
+  <si>
+    <t>sum(RxD)/7</t>
+  </si>
+  <si>
+    <t>1/S*(sum(RxD)/7)</t>
+  </si>
 </sst>
 </file>
 
@@ -1340,7 +1344,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1401,7 +1405,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1462,7 +1466,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1523,7 +1527,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -17545,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F696BBE8-A62F-4829-97BF-9BE9B83C6F20}">
-  <dimension ref="A1:AL988"/>
+  <dimension ref="A1:AO988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL2" sqref="AL2:AL75"/>
+      <selection pane="bottomRight" activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17579,7 +17583,7 @@
     <col min="36" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -17685,11 +17689,18 @@
       <c r="AJ1" t="s">
         <v>24</v>
       </c>
+      <c r="AK1" s="3"/>
       <c r="AL1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
@@ -17734,6 +17745,7 @@
       <c r="AB2" s="11">
         <v>1</v>
       </c>
+      <c r="AC2" s="3"/>
       <c r="AD2" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>16</v>
@@ -17764,11 +17776,22 @@
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM2">
+        <f>SUM(AD2:AJ2)/7</f>
+        <v>16.857142857142858</v>
+      </c>
+      <c r="AN2">
+        <f>AM2/AL2</f>
+        <v>11.238095238095239</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -17814,6 +17837,7 @@
       <c r="AB3" s="11">
         <v>1</v>
       </c>
+      <c r="AC3" s="3"/>
       <c r="AD3" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>20</v>
@@ -17843,11 +17867,19 @@
         <v>15</v>
       </c>
       <c r="AL3">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM66" si="0">SUM(AD3:AJ3)/7</f>
+        <v>15.571428571428571</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN66" si="1">AM3/AL3</f>
+        <v>18.685714285714287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -17894,6 +17926,7 @@
       <c r="AB4" s="11">
         <v>1</v>
       </c>
+      <c r="AC4" s="3"/>
       <c r="AD4" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>12</v>
@@ -17923,11 +17956,19 @@
         <v>14</v>
       </c>
       <c r="AL4">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="0"/>
+        <v>15.428571428571429</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="1"/>
+        <v>12.342857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -17972,6 +18013,7 @@
       <c r="AB5" s="11">
         <v>1</v>
       </c>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>24</v>
@@ -18001,11 +18043,19 @@
         <v>19</v>
       </c>
       <c r="AL5">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="0"/>
+        <v>18.428571428571427</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="1"/>
+        <v>36.857142857142854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -18055,6 +18105,7 @@
       <c r="AB6" s="11">
         <v>1</v>
       </c>
+      <c r="AC6" s="3"/>
       <c r="AD6" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>18</v>
@@ -18084,11 +18135,19 @@
         <v>15</v>
       </c>
       <c r="AL6">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="0"/>
+        <v>16.428571428571427</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="1"/>
+        <v>10.952380952380951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -18142,6 +18201,7 @@
       </c>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
+      <c r="AC7" s="3"/>
       <c r="AD7" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>36</v>
@@ -18171,11 +18231,19 @@
         <v>18</v>
       </c>
       <c r="AL7">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="0"/>
+        <v>25.857142857142858</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="1"/>
+        <v>14.775510204081634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -18200,6 +18268,7 @@
       </c>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
+      <c r="AC8" s="3"/>
       <c r="AD8" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>3</v>
@@ -18229,11 +18298,19 @@
         <v>8</v>
       </c>
       <c r="AL8">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -18273,6 +18350,7 @@
       </c>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
+      <c r="AC9" s="3"/>
       <c r="AD9" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>26</v>
@@ -18302,11 +18380,19 @@
         <v>15</v>
       </c>
       <c r="AL9">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -18336,6 +18422,7 @@
       </c>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
+      <c r="AC10" s="3"/>
       <c r="AD10" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>9</v>
@@ -18365,11 +18452,19 @@
         <v>6</v>
       </c>
       <c r="AL10">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="0"/>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="1"/>
+        <v>6.5714285714285712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -18402,6 +18497,7 @@
       </c>
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
+      <c r="AC11" s="3"/>
       <c r="AD11" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>8</v>
@@ -18431,11 +18527,19 @@
         <v>7</v>
       </c>
       <c r="AL11">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="0"/>
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="1"/>
+        <v>7.8571428571428568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -18480,6 +18584,7 @@
       </c>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
+      <c r="AC12" s="3"/>
       <c r="AD12" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>26</v>
@@ -18509,11 +18614,19 @@
         <v>13</v>
       </c>
       <c r="AL12">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="0"/>
+        <v>17.428571428571427</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="1"/>
+        <v>8.7142857142857135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -18547,6 +18660,7 @@
       </c>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
+      <c r="AC13" s="3"/>
       <c r="AD13" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>18</v>
@@ -18576,11 +18690,19 @@
         <v>8</v>
       </c>
       <c r="AL13">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="0"/>
+        <v>10.428571428571429</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="1"/>
+        <v>8.9387755102040831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -18628,6 +18750,7 @@
       </c>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
+      <c r="AC14" s="3"/>
       <c r="AD14" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>26</v>
@@ -18657,11 +18780,19 @@
         <v>12</v>
       </c>
       <c r="AL14">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="0"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -18706,6 +18837,7 @@
       </c>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
+      <c r="AC15" s="3"/>
       <c r="AD15" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>30</v>
@@ -18735,11 +18867,19 @@
         <v>13</v>
       </c>
       <c r="AL15">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -18775,6 +18915,7 @@
       </c>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
+      <c r="AC16" s="3"/>
       <c r="AD16" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>7</v>
@@ -18804,11 +18945,19 @@
         <v>6</v>
       </c>
       <c r="AL16">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="0"/>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="1"/>
+        <v>4.9523809523809526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -18847,6 +18996,7 @@
       </c>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
+      <c r="AC17" s="3"/>
       <c r="AD17" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>14</v>
@@ -18876,11 +19026,19 @@
         <v>9</v>
       </c>
       <c r="AL17">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="0"/>
+        <v>10.428571428571429</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="1"/>
+        <v>5.2142857142857144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -18916,6 +19074,7 @@
       </c>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
+      <c r="AC18" s="3"/>
       <c r="AD18" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>14</v>
@@ -18945,11 +19104,19 @@
         <v>9</v>
       </c>
       <c r="AL18">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="0"/>
+        <v>10.428571428571429</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="1"/>
+        <v>13.904761904761905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -18997,6 +19164,7 @@
       </c>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
+      <c r="AC19" s="3"/>
       <c r="AD19" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>21</v>
@@ -19026,11 +19194,19 @@
         <v>12</v>
       </c>
       <c r="AL19">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="0"/>
+        <v>15.142857142857142</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="1"/>
+        <v>12.114285714285714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -19066,6 +19242,7 @@
       </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
+      <c r="AC20" s="3"/>
       <c r="AD20" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>15</v>
@@ -19095,11 +19272,19 @@
         <v>10</v>
       </c>
       <c r="AL20">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="0"/>
+        <v>10.285714285714286</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="1"/>
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -19136,6 +19321,7 @@
       </c>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
+      <c r="AC21" s="3"/>
       <c r="AD21" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>7</v>
@@ -19165,11 +19351,19 @@
         <v>6</v>
       </c>
       <c r="AL21">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -19194,6 +19388,7 @@
       </c>
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
+      <c r="AC22" s="3"/>
       <c r="AD22" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>2</v>
@@ -19223,11 +19418,19 @@
         <v>3</v>
       </c>
       <c r="AL22">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="0"/>
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="1"/>
+        <v>7.0714285714285721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -19263,6 +19466,7 @@
       </c>
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
+      <c r="AC23" s="3"/>
       <c r="AD23" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>14</v>
@@ -19292,11 +19496,19 @@
         <v>9</v>
       </c>
       <c r="AL23">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="0"/>
+        <v>10.428571428571429</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="1"/>
+        <v>10.428571428571429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -19330,6 +19542,7 @@
       </c>
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
+      <c r="AC24" s="3"/>
       <c r="AD24" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>11</v>
@@ -19359,11 +19572,19 @@
         <v>6</v>
       </c>
       <c r="AL24">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="0"/>
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="1"/>
+        <v>11.785714285714286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -19422,6 +19643,7 @@
         <v>1</v>
       </c>
       <c r="AB25" s="11"/>
+      <c r="AC25" s="3"/>
       <c r="AD25" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>36</v>
@@ -19451,11 +19673,19 @@
         <v>25</v>
       </c>
       <c r="AL25">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -19508,6 +19738,7 @@
         <v>1</v>
       </c>
       <c r="AB26" s="11"/>
+      <c r="AC26" s="3"/>
       <c r="AD26" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>33</v>
@@ -19537,11 +19768,19 @@
         <v>20</v>
       </c>
       <c r="AL26">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="0"/>
+        <v>26.142857142857142</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="1"/>
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -19600,6 +19839,7 @@
         <v>1</v>
       </c>
       <c r="AB27" s="11"/>
+      <c r="AC27" s="3"/>
       <c r="AD27" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>33</v>
@@ -19629,11 +19869,19 @@
         <v>24</v>
       </c>
       <c r="AL27">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="0"/>
+        <v>28.428571428571427</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="1"/>
+        <v>22.74285714285714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -19683,6 +19931,7 @@
         <v>1</v>
       </c>
       <c r="AB28" s="11"/>
+      <c r="AC28" s="3"/>
       <c r="AD28" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>25</v>
@@ -19712,11 +19961,19 @@
         <v>18</v>
       </c>
       <c r="AL28">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="0"/>
+        <v>21.285714285714285</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="1"/>
+        <v>14.19047619047619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -19760,6 +20017,7 @@
         <v>1</v>
       </c>
       <c r="AB29" s="11"/>
+      <c r="AC29" s="3"/>
       <c r="AD29" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>18</v>
@@ -19789,11 +20047,19 @@
         <v>16</v>
       </c>
       <c r="AL29">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="0"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="1"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -19821,6 +20087,7 @@
       </c>
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
+      <c r="AC30" s="3"/>
       <c r="AD30" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>6</v>
@@ -19850,11 +20117,19 @@
         <v>5</v>
       </c>
       <c r="AL30">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="0"/>
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="1"/>
+        <v>8.3571428571428577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -19888,6 +20163,7 @@
       </c>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
+      <c r="AC31" s="3"/>
       <c r="AD31" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>3</v>
@@ -19917,11 +20193,19 @@
         <v>4</v>
       </c>
       <c r="AL31">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="0"/>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="1"/>
+        <v>3.4285714285714288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -19955,6 +20239,7 @@
       </c>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
+      <c r="AC32" s="3"/>
       <c r="AD32" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>8</v>
@@ -19984,11 +20269,19 @@
         <v>6</v>
       </c>
       <c r="AL32">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="0"/>
+        <v>8.7142857142857135</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="1"/>
+        <v>13.071428571428571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -20034,6 +20327,7 @@
       </c>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
+      <c r="AC33" s="3"/>
       <c r="AD33" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>26</v>
@@ -20063,11 +20357,19 @@
         <v>12</v>
       </c>
       <c r="AL33">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="1"/>
+        <v>13.714285714285715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -20115,6 +20417,7 @@
       </c>
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
+      <c r="AC34" s="3"/>
       <c r="AD34" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>18</v>
@@ -20144,11 +20447,19 @@
         <v>13</v>
       </c>
       <c r="AL34">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -20193,6 +20504,7 @@
       </c>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
+      <c r="AC35" s="3"/>
       <c r="AD35" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>28</v>
@@ -20222,11 +20534,19 @@
         <v>17</v>
       </c>
       <c r="AL35">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="0"/>
+        <v>21.857142857142858</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="1"/>
+        <v>21.857142857142858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -20280,6 +20600,7 @@
       </c>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
+      <c r="AC36" s="3"/>
       <c r="AD36" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>30</v>
@@ -20309,11 +20630,19 @@
         <v>18</v>
       </c>
       <c r="AL36">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="1"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -20370,6 +20699,7 @@
       </c>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
+      <c r="AC37" s="3"/>
       <c r="AD37" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>34</v>
@@ -20399,11 +20729,19 @@
         <v>20</v>
       </c>
       <c r="AL37">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="0"/>
+        <v>25.285714285714285</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="1"/>
+        <v>20.228571428571428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -20448,6 +20786,7 @@
       </c>
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
+      <c r="AC38" s="3"/>
       <c r="AD38" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>16</v>
@@ -20477,11 +20816,19 @@
         <v>10</v>
       </c>
       <c r="AL38">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="0"/>
+        <v>12.714285714285714</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="1"/>
+        <v>12.714285714285714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -20529,6 +20876,7 @@
       </c>
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
+      <c r="AC39" s="3"/>
       <c r="AD39" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>28</v>
@@ -20558,11 +20906,19 @@
         <v>17</v>
       </c>
       <c r="AL39">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="0"/>
+        <v>21.857142857142858</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="1"/>
+        <v>17.485714285714288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -20611,6 +20967,7 @@
       </c>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
+      <c r="AC40" s="3"/>
       <c r="AD40" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>21</v>
@@ -20640,11 +20997,19 @@
         <v>16</v>
       </c>
       <c r="AL40">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="0"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="1"/>
+        <v>25.928571428571427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -20696,6 +21061,7 @@
       </c>
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
+      <c r="AC41" s="3"/>
       <c r="AD41" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>26</v>
@@ -20725,11 +21091,19 @@
         <v>17</v>
       </c>
       <c r="AL41">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="0"/>
+        <v>22.142857142857142</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="1"/>
+        <v>33.214285714285715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -20783,6 +21157,7 @@
       </c>
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
+      <c r="AC42" s="3"/>
       <c r="AD42" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>25</v>
@@ -20812,11 +21187,19 @@
         <v>16</v>
       </c>
       <c r="AL42">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="0"/>
+        <v>20.428571428571427</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" si="1"/>
+        <v>20.428571428571427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -20870,6 +21253,7 @@
       </c>
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
+      <c r="AC43" s="3"/>
       <c r="AD43" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>13</v>
@@ -20899,11 +21283,19 @@
         <v>11</v>
       </c>
       <c r="AL43">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="0"/>
+        <v>16.428571428571427</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="1"/>
+        <v>10.952380952380951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -20960,6 +21352,7 @@
       </c>
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
+      <c r="AC44" s="3"/>
       <c r="AD44" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>27</v>
@@ -20989,11 +21382,19 @@
         <v>18</v>
       </c>
       <c r="AL44">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="0"/>
+        <v>23.142857142857142</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="1"/>
+        <v>15.428571428571429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -21035,6 +21436,7 @@
       </c>
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
+      <c r="AC45" s="3"/>
       <c r="AD45" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>16</v>
@@ -21064,11 +21466,19 @@
         <v>10</v>
       </c>
       <c r="AL45">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -21105,6 +21515,7 @@
       </c>
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
+      <c r="AC46" s="3"/>
       <c r="AD46" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>14</v>
@@ -21134,11 +21545,19 @@
         <v>11</v>
       </c>
       <c r="AL46">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -21186,6 +21605,7 @@
       </c>
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
+      <c r="AC47" s="3"/>
       <c r="AD47" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>23</v>
@@ -21215,11 +21635,19 @@
         <v>11</v>
       </c>
       <c r="AL47">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="0"/>
+        <v>16.285714285714285</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="1"/>
+        <v>16.285714285714285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -21267,6 +21695,7 @@
       </c>
       <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
+      <c r="AC48" s="3"/>
       <c r="AD48" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>23</v>
@@ -21296,11 +21725,19 @@
         <v>11</v>
       </c>
       <c r="AL48">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="0"/>
+        <v>16.285714285714285</v>
+      </c>
+      <c r="AN48">
+        <f t="shared" si="1"/>
+        <v>8.1428571428571423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -21342,6 +21779,7 @@
       </c>
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
+      <c r="AC49" s="3"/>
       <c r="AD49" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>22</v>
@@ -21371,11 +21809,19 @@
         <v>10</v>
       </c>
       <c r="AL49">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="0"/>
+        <v>14.714285714285714</v>
+      </c>
+      <c r="AN49">
+        <f t="shared" si="1"/>
+        <v>9.8095238095238084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -21423,6 +21869,7 @@
       </c>
       <c r="AA50" s="11"/>
       <c r="AB50" s="11"/>
+      <c r="AC50" s="3"/>
       <c r="AD50" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>23</v>
@@ -21452,11 +21899,19 @@
         <v>11</v>
       </c>
       <c r="AL50">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="0"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="AN50">
+        <f t="shared" si="1"/>
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -21498,6 +21953,7 @@
       </c>
       <c r="AA51" s="11"/>
       <c r="AB51" s="11"/>
+      <c r="AC51" s="3"/>
       <c r="AD51" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>20</v>
@@ -21527,11 +21983,19 @@
         <v>12</v>
       </c>
       <c r="AL51">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM51">
+        <f t="shared" si="0"/>
+        <v>16.428571428571427</v>
+      </c>
+      <c r="AN51">
+        <f t="shared" si="1"/>
+        <v>16.428571428571427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -21579,6 +22043,7 @@
       </c>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
+      <c r="AC52" s="3"/>
       <c r="AD52" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>31</v>
@@ -21608,11 +22073,19 @@
         <v>16</v>
       </c>
       <c r="AL52">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <f t="shared" si="0"/>
+        <v>19.571428571428573</v>
+      </c>
+      <c r="AN52">
+        <f t="shared" si="1"/>
+        <v>15.657142857142858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -21655,6 +22128,7 @@
       </c>
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
+      <c r="AC53" s="3"/>
       <c r="AD53" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>24</v>
@@ -21684,11 +22158,19 @@
         <v>12</v>
       </c>
       <c r="AL53">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" si="0"/>
+        <v>16.142857142857142</v>
+      </c>
+      <c r="AN53">
+        <f t="shared" si="1"/>
+        <v>16.142857142857142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -21725,6 +22207,7 @@
       </c>
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
+      <c r="AC54" s="3"/>
       <c r="AD54" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>15</v>
@@ -21754,11 +22237,19 @@
         <v>10</v>
       </c>
       <c r="AL54">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" si="0"/>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="AN54">
+        <f t="shared" si="1"/>
+        <v>17.142857142857146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -21789,6 +22280,7 @@
       </c>
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
+      <c r="AC55" s="3"/>
       <c r="AD55" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>11</v>
@@ -21818,11 +22310,19 @@
         <v>7</v>
       </c>
       <c r="AL55">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM55">
+        <f t="shared" si="0"/>
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="AN55">
+        <f t="shared" si="1"/>
+        <v>10.928571428571429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -21859,6 +22359,7 @@
       </c>
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
+      <c r="AC56" s="3"/>
       <c r="AD56" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>16</v>
@@ -21888,11 +22389,19 @@
         <v>11</v>
       </c>
       <c r="AL56">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" si="0"/>
+        <v>11.285714285714286</v>
+      </c>
+      <c r="AN56">
+        <f t="shared" si="1"/>
+        <v>16.928571428571431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -21940,6 +22449,7 @@
       </c>
       <c r="AA57" s="11"/>
       <c r="AB57" s="11"/>
+      <c r="AC57" s="3"/>
       <c r="AD57" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>23</v>
@@ -21969,11 +22479,19 @@
         <v>11</v>
       </c>
       <c r="AL57">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM57">
+        <f t="shared" si="0"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="AN57">
+        <f t="shared" si="1"/>
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -22009,6 +22527,7 @@
       </c>
       <c r="AA58" s="11"/>
       <c r="AB58" s="11"/>
+      <c r="AC58" s="3"/>
       <c r="AD58" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>18</v>
@@ -22038,11 +22557,19 @@
         <v>9</v>
       </c>
       <c r="AL58">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM58">
+        <f t="shared" si="0"/>
+        <v>11.857142857142858</v>
+      </c>
+      <c r="AN58">
+        <f t="shared" si="1"/>
+        <v>11.857142857142858</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -22079,6 +22606,7 @@
       </c>
       <c r="AA59" s="11"/>
       <c r="AB59" s="11"/>
+      <c r="AC59" s="3"/>
       <c r="AD59" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>22</v>
@@ -22108,11 +22636,19 @@
         <v>10</v>
       </c>
       <c r="AL59">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM59">
+        <f t="shared" si="0"/>
+        <v>15.285714285714286</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" si="1"/>
+        <v>22.928571428571431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -22155,6 +22691,7 @@
       </c>
       <c r="AA60" s="11"/>
       <c r="AB60" s="11"/>
+      <c r="AC60" s="3"/>
       <c r="AD60" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>21</v>
@@ -22184,11 +22721,19 @@
         <v>9</v>
       </c>
       <c r="AL60">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AM60">
+        <f t="shared" si="0"/>
+        <v>13.571428571428571</v>
+      </c>
+      <c r="AN60">
+        <f t="shared" si="1"/>
+        <v>16.285714285714288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -22227,6 +22772,7 @@
       </c>
       <c r="AA61" s="11"/>
       <c r="AB61" s="11"/>
+      <c r="AC61" s="3"/>
       <c r="AD61" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>17</v>
@@ -22256,11 +22802,19 @@
         <v>8</v>
       </c>
       <c r="AL61">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AN61">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -22299,6 +22853,7 @@
       </c>
       <c r="AA62" s="11"/>
       <c r="AB62" s="11"/>
+      <c r="AC62" s="3"/>
       <c r="AD62" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>22</v>
@@ -22328,11 +22883,19 @@
         <v>10</v>
       </c>
       <c r="AL62">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="0"/>
+        <v>15.285714285714286</v>
+      </c>
+      <c r="AN62">
+        <f t="shared" si="1"/>
+        <v>20.380952380952383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -22372,6 +22935,7 @@
       </c>
       <c r="AA63" s="11"/>
       <c r="AB63" s="11"/>
+      <c r="AC63" s="3"/>
       <c r="AD63" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>18</v>
@@ -22401,11 +22965,19 @@
         <v>8</v>
       </c>
       <c r="AL63">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM63">
+        <f t="shared" si="0"/>
+        <v>13.857142857142858</v>
+      </c>
+      <c r="AN63">
+        <f t="shared" si="1"/>
+        <v>20.785714285714288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -22453,6 +23025,7 @@
       </c>
       <c r="AA64" s="11"/>
       <c r="AB64" s="11"/>
+      <c r="AC64" s="3"/>
       <c r="AD64" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>23</v>
@@ -22482,11 +23055,19 @@
         <v>16</v>
       </c>
       <c r="AL64">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM64">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AN64">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -22537,6 +23118,7 @@
       </c>
       <c r="AA65" s="11"/>
       <c r="AB65" s="11"/>
+      <c r="AC65" s="3"/>
       <c r="AD65" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>17</v>
@@ -22566,11 +23148,19 @@
         <v>12</v>
       </c>
       <c r="AL65">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" si="0"/>
+        <v>16.571428571428573</v>
+      </c>
+      <c r="AN65">
+        <f t="shared" si="1"/>
+        <v>11.047619047619049</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -22610,6 +23200,7 @@
       </c>
       <c r="AA66" s="11"/>
       <c r="AB66" s="11"/>
+      <c r="AC66" s="3"/>
       <c r="AD66" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>22</v>
@@ -22639,11 +23230,19 @@
         <v>16</v>
       </c>
       <c r="AL66">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM66">
+        <f t="shared" si="0"/>
+        <v>18.285714285714285</v>
+      </c>
+      <c r="AN66">
+        <f t="shared" si="1"/>
+        <v>27.428571428571427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -22700,6 +23299,7 @@
       </c>
       <c r="AA67" s="11"/>
       <c r="AB67" s="11"/>
+      <c r="AC67" s="3"/>
       <c r="AD67" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>36</v>
@@ -22729,11 +23329,19 @@
         <v>21</v>
       </c>
       <c r="AL67">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AM67">
+        <f t="shared" ref="AM67:AM75" si="2">SUM(AD67:AJ67)/7</f>
+        <v>24.714285714285715</v>
+      </c>
+      <c r="AN67">
+        <f t="shared" ref="AN67:AN75" si="3">AM67/AL67</f>
+        <v>32.952380952380956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -22787,6 +23395,7 @@
       </c>
       <c r="AA68" s="11"/>
       <c r="AB68" s="11"/>
+      <c r="AC68" s="3"/>
       <c r="AD68" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>24</v>
@@ -22816,11 +23425,19 @@
         <v>15</v>
       </c>
       <c r="AL68">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AM68">
+        <f t="shared" si="2"/>
+        <v>19.571428571428573</v>
+      </c>
+      <c r="AN68">
+        <f t="shared" si="3"/>
+        <v>26.095238095238098</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -22869,6 +23486,7 @@
       </c>
       <c r="AA69" s="11"/>
       <c r="AB69" s="11"/>
+      <c r="AC69" s="3"/>
       <c r="AD69" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>32</v>
@@ -22898,11 +23516,19 @@
         <v>20</v>
       </c>
       <c r="AL69">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM69">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="AN69">
+        <f t="shared" si="3"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -22956,6 +23582,7 @@
       </c>
       <c r="AA70" s="11"/>
       <c r="AB70" s="11"/>
+      <c r="AC70" s="3"/>
       <c r="AD70" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>27</v>
@@ -22985,11 +23612,19 @@
         <v>17</v>
       </c>
       <c r="AL70">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM70">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AN70">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -23043,6 +23678,7 @@
       </c>
       <c r="AA71" s="11"/>
       <c r="AB71" s="11"/>
+      <c r="AC71" s="3"/>
       <c r="AD71" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>32</v>
@@ -23072,11 +23708,19 @@
         <v>20</v>
       </c>
       <c r="AL71">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM71">
+        <f t="shared" si="2"/>
+        <v>22.142857142857142</v>
+      </c>
+      <c r="AN71">
+        <f t="shared" si="3"/>
+        <v>22.142857142857142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -23127,6 +23771,7 @@
       </c>
       <c r="AA72" s="11"/>
       <c r="AB72" s="11"/>
+      <c r="AC72" s="3"/>
       <c r="AD72" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>26</v>
@@ -23156,11 +23801,19 @@
         <v>18</v>
       </c>
       <c r="AL72">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AM72">
+        <f t="shared" si="2"/>
+        <v>22.285714285714285</v>
+      </c>
+      <c r="AN72">
+        <f t="shared" si="3"/>
+        <v>14.857142857142856</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -23208,6 +23861,7 @@
       </c>
       <c r="AA73" s="11"/>
       <c r="AB73" s="11"/>
+      <c r="AC73" s="3"/>
       <c r="AD73" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>27</v>
@@ -23237,11 +23891,19 @@
         <v>18</v>
       </c>
       <c r="AL73">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM73">
+        <f t="shared" si="2"/>
+        <v>22.571428571428573</v>
+      </c>
+      <c r="AN73">
+        <f t="shared" si="3"/>
+        <v>22.571428571428573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -23295,6 +23957,7 @@
       </c>
       <c r="AA74" s="11"/>
       <c r="AB74" s="11"/>
+      <c r="AC74" s="3"/>
       <c r="AD74" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>26</v>
@@ -23324,11 +23987,19 @@
         <v>17</v>
       </c>
       <c r="AL74">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM74">
+        <f t="shared" si="2"/>
+        <v>20.142857142857142</v>
+      </c>
+      <c r="AN74">
+        <f t="shared" si="3"/>
+        <v>20.142857142857142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -23361,6 +24032,7 @@
       </c>
       <c r="AA75" s="11"/>
       <c r="AB75" s="11"/>
+      <c r="AC75" s="3"/>
       <c r="AD75" s="3">
         <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
         <v>12</v>
@@ -23390,11 +24062,19 @@
         <v>11</v>
       </c>
       <c r="AL75">
-        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+Table_14[[#This Row],[min length]])/10))</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM75">
+        <f t="shared" si="2"/>
+        <v>12.571428571428571</v>
+      </c>
+      <c r="AN75">
+        <f t="shared" si="3"/>
+        <v>18.857142857142858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -23419,7 +24099,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -23505,7 +24185,7 @@
         <v>5.1496638245683073</v>
       </c>
     </row>
-    <row r="78" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -23591,7 +24271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -23677,7 +24357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -24696,6 +25376,30 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="AM2:AM75">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2:AN75">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7F362B-2E12-4E1C-90C8-B981C1DF5CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEAF0F5-4BE5-46D1-BA04-BE2A92FFF189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,9 @@
     <sheet name="Privacy values" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Services sum test'!$AG$2:$AG$75</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Services sum test'!$AF$2:$AF$75</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Services sum test'!$AD$2:$AD$75</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Services sum test'!$AD$2:$AD$75</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Services sum test'!$AG$2:$AG$75</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Services sum test'!$AF$2:$AF$75</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Services sum test'!$AE$2:$AE$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="247">
   <si>
     <t>Nickname</t>
   </si>
@@ -777,10 +777,16 @@
     <t>S</t>
   </si>
   <si>
-    <t>sum(RxD)/7</t>
+    <t>Sqr(sumsq(S*U=1*V))</t>
   </si>
   <si>
-    <t>1/S*(sum(RxD)/7)</t>
+    <t>Sqr(sumsq(S*U=0.75*V))</t>
+  </si>
+  <si>
+    <t>Sqr(sumsq(S*U=1.25*V))</t>
+  </si>
+  <si>
+    <t>R(sum dimensions)</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1350,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1466,7 +1472,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1527,7 +1533,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -17549,13 +17555,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F696BBE8-A62F-4829-97BF-9BE9B83C6F20}">
-  <dimension ref="A1:AO988"/>
+  <dimension ref="A1:AQ988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO8" sqref="AO8"/>
+      <selection pane="bottomRight" activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17580,10 +17586,13 @@
     <col min="23" max="25" width="8.5703125" style="3" customWidth="1"/>
     <col min="30" max="31" width="8.85546875" style="3" customWidth="1"/>
     <col min="32" max="33" width="14.42578125" style="3"/>
-    <col min="36" max="16384" width="14.42578125" style="3"/>
+    <col min="36" max="39" width="14.42578125" style="3"/>
+    <col min="40" max="40" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -17689,18 +17698,24 @@
       <c r="AJ1" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="3"/>
+      <c r="AK1" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="AL1" t="s">
         <v>242</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>243</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ1" s="3"/>
+    </row>
+    <row r="2" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
@@ -17747,51 +17762,55 @@
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AE2" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AF2" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AG2" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AH2" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AI2" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ2" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>16</v>
-      </c>
-      <c r="AK2" s="3"/>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AK2" s="3">
+        <f>SUM(AD2:AJ2)</f>
+        <v>16.857142857142858</v>
+      </c>
       <c r="AL2">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM2">
-        <f>SUM(AD2:AJ2)/7</f>
-        <v>16.857142857142858</v>
-      </c>
       <c r="AN2">
-        <f>AM2/AL2</f>
-        <v>11.238095238095239</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <f>SQRT(SUMSQ(AD2*AL2,AE2*AL2,AF2*AL2,AG2*AL2,AH2*AL2,AI2*AL2,AJ2*AL2))</f>
+        <v>9.9637096607680018</v>
+      </c>
+      <c r="AO2">
+        <f>SQRT(SUMSQ(AD2*AL2*0.75, AE2*AL2*0.75, AF2*AL2*0.75, AG2*AL2*0.75, AH2*AL2*0.75, AI2*AL2*0.75, AJ2*AL2*0.75))</f>
+        <v>7.4727822455760027</v>
+      </c>
+      <c r="AP2">
+        <f>SQRT(SUMSQ(AD2*AL2*1.25, AE2*AL2*1.25, AF2*AL2*1.25, AG2*AL2*1.25, AH2*AL2*1.25, AI2*AL2*1.25, AJ2*AL2*1.25))</f>
+        <v>12.454637075960004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -17839,47 +17858,55 @@
       </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AE3" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AF3" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AG3" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AH3" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AI3" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AJ3" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="AK3" s="3">
+        <f t="shared" ref="AK3:AK66" si="0">SUM(AD3:AJ3)</f>
+        <v>15.571428571428571</v>
       </c>
       <c r="AL3">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AM3">
-        <f t="shared" ref="AM3:AM66" si="0">SUM(AD3:AJ3)/7</f>
-        <v>15.571428571428571</v>
-      </c>
       <c r="AN3">
-        <f t="shared" ref="AN3:AN66" si="1">AM3/AL3</f>
-        <v>18.685714285714287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AN3:AN66" si="1">SQRT(SUMSQ(AD3*AL3,AE3*AL3,AF3*AL3,AG3*AL3,AH3*AL3,AI3*AL3,AJ3*AL3))</f>
+        <v>4.9815418935494469</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO66" si="2">SQRT(SUMSQ(AD3*AL3*0.75, AE3*AL3*0.75, AF3*AL3*0.75, AG3*AL3*0.75, AH3*AL3*0.75, AI3*AL3*0.75, AJ3*AL3*0.75))</f>
+        <v>3.7361564201620849</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ref="AP3:AP66" si="3">SQRT(SUMSQ(AD3*AL3*1.25, AE3*AL3*1.25, AF3*AL3*1.25, AG3*AL3*1.25, AH3*AL3*1.25, AI3*AL3*1.25, AJ3*AL3*1.25))</f>
+        <v>6.2269273669368079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -17928,47 +17955,55 @@
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AE4" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2</v>
       </c>
       <c r="AF4" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AG4" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AH4" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AI4" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ4" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2</v>
+      </c>
+      <c r="AK4" s="3">
+        <f t="shared" si="0"/>
+        <v>15.428571428571429</v>
       </c>
       <c r="AL4">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM4">
-        <f t="shared" si="0"/>
-        <v>15.428571428571429</v>
-      </c>
       <c r="AN4">
         <f t="shared" si="1"/>
-        <v>12.342857142857143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7.6806475598594881</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="2"/>
+        <v>5.7604856698946163</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="3"/>
+        <v>9.600809449824359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -18015,47 +18050,55 @@
       </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="AE5" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3</v>
       </c>
       <c r="AF5" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AG5" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AH5" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AI5" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AJ5" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" si="0"/>
+        <v>18.428571428571431</v>
       </c>
       <c r="AL5">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.5</v>
       </c>
-      <c r="AM5">
-        <f t="shared" si="0"/>
-        <v>18.428571428571427</v>
-      </c>
       <c r="AN5">
         <f t="shared" si="1"/>
-        <v>36.857142857142854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.5549620394655155</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="2"/>
+        <v>2.6662215295991363</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="3"/>
+        <v>4.4437025493318947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -18107,47 +18150,55 @@
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AE6" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AF6" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="AG6" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AH6" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AI6" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AJ6" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="0"/>
+        <v>16.428571428571431</v>
       </c>
       <c r="AL6">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM6">
-        <f t="shared" si="0"/>
-        <v>16.428571428571427</v>
-      </c>
       <c r="AN6">
         <f t="shared" si="1"/>
-        <v>10.952380952380951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.5711620431974112</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="2"/>
+        <v>7.1783715323980584</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="3"/>
+        <v>11.963952553996764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -18203,47 +18254,55 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>36</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="AE7" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AF7" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>35</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>5</v>
       </c>
       <c r="AG7" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>32</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="AH7" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AI7" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AJ7" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" si="0"/>
+        <v>25.857142857142858</v>
       </c>
       <c r="AL7">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.7499999999999998</v>
       </c>
-      <c r="AM7">
-        <f t="shared" si="0"/>
-        <v>25.857142857142858</v>
-      </c>
       <c r="AN7">
         <f t="shared" si="1"/>
-        <v>14.775510204081634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>17.813267527323557</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="2"/>
+        <v>13.359950645492667</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="3"/>
+        <v>22.266584409154447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -18270,47 +18329,55 @@
       <c r="AB8" s="11"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>3</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AE8" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AF8" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AG8" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AH8" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AI8" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AJ8" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="AL8">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
       <c r="AN8">
         <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.892819706128742</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="2"/>
+        <v>1.4196147795965564</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="3"/>
+        <v>2.3660246326609276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -18352,47 +18419,55 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AE9" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AF9" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>28</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>4</v>
       </c>
       <c r="AG9" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AH9" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AI9" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AJ9" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="AL9">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AM9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
       <c r="AN9">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6.2802555662428459</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="2"/>
+        <v>4.7101916746821342</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="3"/>
+        <v>7.8503194578035576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -18424,47 +18499,55 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AE10" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AF10" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AG10" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AH10" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AI10" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AJ10" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5714285714285703</v>
       </c>
       <c r="AL10">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM10">
-        <f t="shared" si="0"/>
-        <v>6.5714285714285712</v>
-      </c>
       <c r="AN10">
         <f t="shared" si="1"/>
-        <v>6.5714285714285712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.5314350209527641</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="2"/>
+        <v>1.8985762657145731</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="3"/>
+        <v>3.1642937761909558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -18499,47 +18582,55 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AE11" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AF11" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2</v>
       </c>
       <c r="AG11" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AH11" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AI11" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AJ11" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="0"/>
+        <v>7.8571428571428568</v>
       </c>
       <c r="AL11">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM11">
-        <f t="shared" si="0"/>
-        <v>7.8571428571428568</v>
-      </c>
       <c r="AN11">
         <f t="shared" si="1"/>
-        <v>7.8571428571428568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.1783707801838554</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="2"/>
+        <v>2.3837780851378914</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="3"/>
+        <v>3.9729634752298195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -18586,47 +18677,55 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AE12" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AF12" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AG12" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AH12" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2</v>
       </c>
       <c r="AI12" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AJ12" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="0"/>
+        <v>17.428571428571427</v>
       </c>
       <c r="AL12">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>2</v>
       </c>
-      <c r="AM12">
-        <f t="shared" si="0"/>
-        <v>17.428571428571427</v>
-      </c>
       <c r="AN12">
         <f t="shared" si="1"/>
-        <v>8.7142857142857135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13.832821070754518</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="2"/>
+        <v>10.374615803065888</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="3"/>
+        <v>17.29102633844315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -18662,47 +18761,55 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AE13" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AF13" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AG13" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AH13" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AI13" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AJ13" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="0"/>
+        <v>10.428571428571429</v>
       </c>
       <c r="AL13">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="AM13">
-        <f t="shared" si="0"/>
-        <v>10.428571428571429</v>
-      </c>
       <c r="AN13">
         <f t="shared" si="1"/>
-        <v>8.9387755102040831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4.9018137232842474</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="2"/>
+        <v>3.6763602924631855</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="3"/>
+        <v>6.1272671541053088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -18752,47 +18859,55 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AE14" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AF14" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AG14" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AH14" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2</v>
       </c>
       <c r="AI14" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AJ14" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="0"/>
+        <v>17.857142857142858</v>
       </c>
       <c r="AL14">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM14">
-        <f t="shared" si="0"/>
-        <v>17.857142857142858</v>
-      </c>
       <c r="AN14">
         <f t="shared" si="1"/>
-        <v>14.285714285714286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8.9979447766743732</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="2"/>
+        <v>6.7484585825057799</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="3"/>
+        <v>11.247430970842967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -18839,47 +18954,55 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>30</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4.2857142857142856</v>
       </c>
       <c r="AE15" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AF15" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="AG15" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AH15" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2</v>
       </c>
       <c r="AI15" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AJ15" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="AL15">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM15">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
       <c r="AN15">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7.2195878677104437</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="2"/>
+        <v>5.4146909007828325</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="3"/>
+        <v>9.024484834638054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -18917,47 +19040,55 @@
       <c r="AB16" s="11"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1</v>
       </c>
       <c r="AE16" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AF16" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AG16" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AH16" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AI16" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AJ16" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="0"/>
+        <v>7.428571428571427</v>
       </c>
       <c r="AL16">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM16">
-        <f t="shared" si="0"/>
-        <v>7.4285714285714288</v>
-      </c>
       <c r="AN16">
         <f t="shared" si="1"/>
-        <v>4.9523809523809526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4.5658448041419675</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="2"/>
+        <v>3.4243836031064756</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="3"/>
+        <v>5.7073060051774593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -18998,47 +19129,55 @@
       <c r="AB17" s="11"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2</v>
       </c>
       <c r="AE17" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1</v>
       </c>
       <c r="AF17" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AG17" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AH17" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AI17" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AJ17" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="0"/>
+        <v>10.428571428571429</v>
       </c>
       <c r="AL17">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>2</v>
       </c>
-      <c r="AM17">
-        <f t="shared" si="0"/>
-        <v>10.428571428571429</v>
-      </c>
       <c r="AN17">
         <f t="shared" si="1"/>
-        <v>5.2142857142857144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8.2065180664828983</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="2"/>
+        <v>6.1548885498621733</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="3"/>
+        <v>10.258147583103622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -19076,47 +19215,55 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2</v>
       </c>
       <c r="AE18" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1</v>
       </c>
       <c r="AF18" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AG18" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AH18" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AI18" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AJ18" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="0"/>
+        <v>10.428571428571429</v>
       </c>
       <c r="AL18">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.75</v>
       </c>
-      <c r="AM18">
-        <f t="shared" si="0"/>
-        <v>10.428571428571429</v>
-      </c>
       <c r="AN18">
         <f t="shared" si="1"/>
-        <v>13.904761904761905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.0774442749310866</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="2"/>
+        <v>2.3080832061983152</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="3"/>
+        <v>3.846805343663859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -19166,47 +19313,55 @@
       <c r="AB19" s="11"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3</v>
       </c>
       <c r="AE19" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AF19" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AG19" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AH19" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AI19" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AJ19" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AK19" s="3">
+        <f t="shared" si="0"/>
+        <v>15.142857142857142</v>
       </c>
       <c r="AL19">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM19">
-        <f t="shared" si="0"/>
-        <v>15.142857142857142</v>
-      </c>
       <c r="AN19">
         <f t="shared" si="1"/>
-        <v>12.114285714285714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.4744462630201252</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="2"/>
+        <v>5.6058346972650934</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="3"/>
+        <v>9.3430578287751551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -19244,47 +19399,55 @@
       <c r="AB20" s="11"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AE20" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AF20" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AG20" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AH20" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AI20" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AJ20" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AK20" s="3">
+        <f t="shared" si="0"/>
+        <v>10.285714285714285</v>
       </c>
       <c r="AL20">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM20">
-        <f t="shared" si="0"/>
-        <v>10.285714285714286</v>
-      </c>
       <c r="AN20">
         <f t="shared" si="1"/>
-        <v>10.285714285714286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.0758121764820299</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="2"/>
+        <v>3.0568591323615224</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="3"/>
+        <v>5.0947652206025369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -19323,47 +19486,55 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1</v>
       </c>
       <c r="AE21" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AF21" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2</v>
       </c>
       <c r="AG21" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AH21" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AI21" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AJ21" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AK21" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571415</v>
       </c>
       <c r="AL21">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM21">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571432</v>
-      </c>
       <c r="AN21">
         <f t="shared" si="1"/>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.906712849910829</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="2"/>
+        <v>2.1800346374331219</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="3"/>
+        <v>3.6333910623885366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -19390,47 +19561,55 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>2</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AE22" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>3</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AF22" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AG22" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AH22" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>4</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AI22" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>3</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AJ22" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>3</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7142857142857144</v>
       </c>
       <c r="AL22">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM22">
-        <f t="shared" si="0"/>
-        <v>4.7142857142857144</v>
-      </c>
       <c r="AN22">
         <f t="shared" si="1"/>
-        <v>7.0714285714285721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.4349065879351774</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="2"/>
+        <v>1.076179940951383</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="3"/>
+        <v>1.7936332349189716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -19468,47 +19647,55 @@
       <c r="AB23" s="11"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2</v>
       </c>
       <c r="AE23" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1</v>
       </c>
       <c r="AF23" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AG23" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AH23" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AI23" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AJ23" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" si="0"/>
+        <v>10.428571428571429</v>
       </c>
       <c r="AL23">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM23">
-        <f t="shared" si="0"/>
-        <v>10.428571428571429</v>
-      </c>
       <c r="AN23">
         <f t="shared" si="1"/>
-        <v>10.428571428571429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.1032590332414491</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="2"/>
+        <v>3.0774442749310866</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="3"/>
+        <v>5.1290737915518108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -19544,47 +19731,55 @@
       <c r="AB24" s="11"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AE24" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AF24" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AG24" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1</v>
       </c>
       <c r="AH24" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AI24" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AJ24" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="0"/>
+        <v>7.8571428571428559</v>
       </c>
       <c r="AL24">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM24">
-        <f t="shared" si="0"/>
-        <v>7.8571428571428568</v>
-      </c>
       <c r="AN24">
         <f t="shared" si="1"/>
-        <v>11.785714285714286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.0492795039380964</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="2"/>
+        <v>1.5369596279535722</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="3"/>
+        <v>2.5615993799226202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -19645,47 +19840,55 @@
       <c r="AB25" s="11"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>36</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="AE25" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AF25" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>44</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>6.2857142857142856</v>
       </c>
       <c r="AG25" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>34</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>4.8571428571428568</v>
       </c>
       <c r="AH25" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AI25" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>3</v>
       </c>
       <c r="AJ25" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AK25" s="3">
+        <f t="shared" si="0"/>
+        <v>30.000000000000004</v>
       </c>
       <c r="AL25">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM25">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
       <c r="AN25">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.696851137404984</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="2"/>
+        <v>8.772638353053738</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="3"/>
+        <v>14.621063921756228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -19740,47 +19943,55 @@
       <c r="AB26" s="11"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>33</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4.7142857142857144</v>
       </c>
       <c r="AE26" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AF26" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>39</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>5.5714285714285712</v>
       </c>
       <c r="AG26" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>30</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>4.2857142857142856</v>
       </c>
       <c r="AH26" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>3</v>
       </c>
       <c r="AI26" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AJ26" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AK26" s="3">
+        <f t="shared" si="0"/>
+        <v>26.142857142857146</v>
       </c>
       <c r="AL26">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM26">
-        <f t="shared" si="0"/>
-        <v>26.142857142857142</v>
-      </c>
       <c r="AN26">
         <f t="shared" si="1"/>
-        <v>17.428571428571427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15.391324086733317</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="2"/>
+        <v>11.543493065049988</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="3"/>
+        <v>19.239155108416647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -19841,47 +20052,55 @@
       <c r="AB27" s="11"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>33</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4.7142857142857144</v>
       </c>
       <c r="AE27" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AF27" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>43</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>6.1428571428571432</v>
       </c>
       <c r="AG27" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>32</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="AH27" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="AI27" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AJ27" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="AK27" s="3">
+        <f t="shared" si="0"/>
+        <v>28.428571428571427</v>
       </c>
       <c r="AL27">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM27">
-        <f t="shared" si="0"/>
-        <v>28.428571428571427</v>
-      </c>
       <c r="AN27">
         <f t="shared" si="1"/>
-        <v>22.74285714285714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13.881559857654061</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="2"/>
+        <v>10.411169893240546</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="3"/>
+        <v>17.351949822067578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -19933,47 +20152,55 @@
       <c r="AB28" s="11"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AE28" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AF28" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AG28" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="AH28" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AI28" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AJ28" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AK28" s="3">
+        <f t="shared" si="0"/>
+        <v>21.285714285714288</v>
       </c>
       <c r="AL28">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM28">
-        <f t="shared" si="0"/>
-        <v>21.285714285714285</v>
-      </c>
       <c r="AN28">
         <f t="shared" si="1"/>
-        <v>14.19047619047619</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.255569329567546</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="2"/>
+        <v>9.1916769971756604</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="3"/>
+        <v>15.319461661959433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -20019,47 +20246,55 @@
       <c r="AB29" s="11"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AE29" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AF29" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AG29" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3</v>
       </c>
       <c r="AH29" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AI29" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ29" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AK29" s="3">
+        <f t="shared" si="0"/>
+        <v>17.857142857142858</v>
       </c>
       <c r="AL29">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM29">
-        <f t="shared" si="0"/>
-        <v>17.857142857142858</v>
-      </c>
       <c r="AN29">
         <f t="shared" si="1"/>
-        <v>17.857142857142858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.8377702535853251</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="2"/>
+        <v>5.1283276901889945</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="3"/>
+        <v>8.5472128169816575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -20089,47 +20324,55 @@
       <c r="AB30" s="11"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AE30" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AF30" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AG30" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AH30" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AI30" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AJ30" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AK30" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5714285714285721</v>
       </c>
       <c r="AL30">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM30">
-        <f t="shared" si="0"/>
-        <v>5.5714285714285712</v>
-      </c>
       <c r="AN30">
         <f t="shared" si="1"/>
-        <v>8.3571428571428577</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="2"/>
+        <v>1.0714285714285712</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="3"/>
+        <v>1.7857142857142856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -20165,47 +20408,55 @@
       <c r="AB31" s="11"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>3</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AE31" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>4</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AF31" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AG31" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>4</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AH31" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>4</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AI31" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>4</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AJ31" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>4</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AK31" s="3">
+        <f t="shared" si="0"/>
+        <v>5.1428571428571423</v>
       </c>
       <c r="AL31">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM31">
-        <f t="shared" si="0"/>
-        <v>5.1428571428571432</v>
-      </c>
       <c r="AN31">
         <f t="shared" si="1"/>
-        <v>3.4285714285714288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.4419382294733594</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="2"/>
+        <v>2.5814536721050199</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="3"/>
+        <v>4.3024227868416984</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -20241,47 +20492,55 @@
       <c r="AB32" s="11"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AE32" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AF32" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AG32" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AH32" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1</v>
       </c>
       <c r="AI32" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AJ32" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AK32" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7142857142857135</v>
       </c>
       <c r="AL32">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM32">
-        <f t="shared" si="0"/>
-        <v>8.7142857142857135</v>
-      </c>
       <c r="AN32">
         <f t="shared" si="1"/>
-        <v>13.071428571428571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.4522653694445204</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="2"/>
+        <v>1.8391990270833904</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="3"/>
+        <v>3.0653317118056504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -20329,47 +20588,55 @@
       <c r="AB33" s="11"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AE33" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AF33" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AG33" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AH33" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AI33" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AJ33" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AK33" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="AL33">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="AM33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
       <c r="AN33">
         <f t="shared" si="1"/>
-        <v>13.714285714285715</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.5975142133609861</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="2"/>
+        <v>5.69813566002074</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="3"/>
+        <v>9.4968927667012331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -20419,47 +20686,55 @@
       <c r="AB34" s="11"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AE34" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AF34" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>34</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>4.8571428571428568</v>
       </c>
       <c r="AG34" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AH34" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AI34" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AJ34" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="AK34" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="AL34">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM34">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
       <c r="AN34">
         <f t="shared" si="1"/>
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.5280868371100702</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="2"/>
+        <v>7.1460651278325535</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="3"/>
+        <v>11.910108546387589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -20506,47 +20781,55 @@
       <c r="AB35" s="11"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>28</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4</v>
       </c>
       <c r="AE35" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AF35" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>35</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>5</v>
       </c>
       <c r="AG35" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AH35" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AI35" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ35" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AK35" s="3">
+        <f t="shared" si="0"/>
+        <v>21.857142857142858</v>
       </c>
       <c r="AL35">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM35">
-        <f t="shared" si="0"/>
-        <v>21.857142857142858</v>
-      </c>
       <c r="AN35">
         <f t="shared" si="1"/>
-        <v>21.857142857142858</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.7516762242837718</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="2"/>
+        <v>6.5637571682128293</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="3"/>
+        <v>10.939595280354716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -20602,47 +20885,55 @@
       <c r="AB36" s="11"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>30</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4.2857142857142856</v>
       </c>
       <c r="AE36" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2</v>
       </c>
       <c r="AF36" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>36</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="AG36" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>28</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>4</v>
       </c>
       <c r="AH36" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AI36" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AJ36" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AK36" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="AL36">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM36">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
       <c r="AN36">
         <f t="shared" si="1"/>
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.468957659522436</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="2"/>
+        <v>8.6017182446418268</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="3"/>
+        <v>14.336197074403046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -20701,47 +20992,55 @@
       <c r="AB37" s="11"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>34</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4.8571428571428568</v>
       </c>
       <c r="AE37" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AF37" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>38</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>5.4285714285714288</v>
       </c>
       <c r="AG37" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>30</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>4.2857142857142856</v>
       </c>
       <c r="AH37" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AI37" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AJ37" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AK37" s="3">
+        <f t="shared" si="0"/>
+        <v>25.285714285714285</v>
       </c>
       <c r="AL37">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM37">
-        <f t="shared" si="0"/>
-        <v>25.285714285714285</v>
-      </c>
       <c r="AN37">
         <f t="shared" si="1"/>
-        <v>20.228571428571428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.536935227477215</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="2"/>
+        <v>9.4027014206079116</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="3"/>
+        <v>15.671169034346519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -20788,47 +21087,55 @@
       <c r="AB38" s="11"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AE38" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AF38" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3</v>
       </c>
       <c r="AG38" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AH38" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AI38" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AJ38" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AK38" s="3">
+        <f t="shared" si="0"/>
+        <v>12.714285714285715</v>
       </c>
       <c r="AL38">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM38">
-        <f t="shared" si="0"/>
-        <v>12.714285714285714</v>
-      </c>
       <c r="AN38">
         <f t="shared" si="1"/>
-        <v>12.714285714285714</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.0527826239506846</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="2"/>
+        <v>3.7895869679630128</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="3"/>
+        <v>6.3159782799383546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -20878,47 +21185,55 @@
       <c r="AB39" s="11"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>28</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4</v>
       </c>
       <c r="AE39" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AF39" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>35</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>5</v>
       </c>
       <c r="AG39" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AH39" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AI39" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ39" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AK39" s="3">
+        <f t="shared" si="0"/>
+        <v>21.857142857142858</v>
       </c>
       <c r="AL39">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM39">
-        <f t="shared" si="0"/>
-        <v>21.857142857142858</v>
-      </c>
       <c r="AN39">
         <f t="shared" si="1"/>
-        <v>17.485714285714288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.939595280354716</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="2"/>
+        <v>8.2046964602660371</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="3"/>
+        <v>13.674494100443395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -20969,47 +21284,55 @@
       <c r="AB40" s="11"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3</v>
       </c>
       <c r="AE40" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2</v>
       </c>
       <c r="AF40" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3</v>
       </c>
       <c r="AG40" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AH40" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AI40" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ40" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AK40" s="3">
+        <f t="shared" si="0"/>
+        <v>17.285714285714285</v>
       </c>
       <c r="AL40">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM40">
-        <f t="shared" si="0"/>
-        <v>17.285714285714285</v>
-      </c>
       <c r="AN40">
         <f t="shared" si="1"/>
-        <v>25.928571428571427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.4129267955059408</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="2"/>
+        <v>3.3096950966294556</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="3"/>
+        <v>5.5161584943824256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -21063,47 +21386,55 @@
       <c r="AB41" s="11"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AE41" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AF41" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>35</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>5</v>
       </c>
       <c r="AG41" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AH41" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AI41" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AJ41" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AK41" s="3">
+        <f t="shared" si="0"/>
+        <v>22.142857142857142</v>
       </c>
       <c r="AL41">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM41">
-        <f t="shared" si="0"/>
-        <v>22.142857142857142</v>
-      </c>
       <c r="AN41">
         <f t="shared" si="1"/>
-        <v>33.214285714285715</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.8251156889040105</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="2"/>
+        <v>4.3688367666780081</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="3"/>
+        <v>7.2813946111300138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -21159,47 +21490,55 @@
       <c r="AB42" s="11"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AE42" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2</v>
       </c>
       <c r="AF42" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>31</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>4.4285714285714288</v>
       </c>
       <c r="AG42" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AH42" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AI42" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ42" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AK42" s="3">
+        <f t="shared" si="0"/>
+        <v>20.428571428571427</v>
       </c>
       <c r="AL42">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM42">
-        <f t="shared" si="0"/>
-        <v>20.428571428571427</v>
-      </c>
       <c r="AN42">
         <f t="shared" si="1"/>
-        <v>20.428571428571427</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.0799575670738708</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="2"/>
+        <v>6.0599681753054018</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" si="3"/>
+        <v>10.099946958842338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -21255,47 +21594,55 @@
       <c r="AB43" s="11"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AE43" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2</v>
       </c>
       <c r="AF43" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>30</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>4.2857142857142856</v>
       </c>
       <c r="AG43" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3</v>
       </c>
       <c r="AH43" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AI43" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AJ43" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AK43" s="3">
+        <f t="shared" si="0"/>
+        <v>16.428571428571427</v>
       </c>
       <c r="AL43">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM43">
-        <f t="shared" si="0"/>
-        <v>16.428571428571427</v>
-      </c>
       <c r="AN43">
         <f t="shared" si="1"/>
-        <v>10.952380952380951</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.989024589262856</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="2"/>
+        <v>7.4917684419471415</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="3"/>
+        <v>12.48628073657857</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -21354,47 +21701,55 @@
       <c r="AB44" s="11"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AE44" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AF44" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>36</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="AG44" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AH44" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AI44" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AJ44" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AK44" s="3">
+        <f t="shared" si="0"/>
+        <v>23.142857142857146</v>
       </c>
       <c r="AL44">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM44">
-        <f t="shared" si="0"/>
-        <v>23.142857142857142</v>
-      </c>
       <c r="AN44">
         <f t="shared" si="1"/>
-        <v>15.428571428571429</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13.650521407399705</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="2"/>
+        <v>10.237891055549778</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="3"/>
+        <v>17.063151759249628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -21438,47 +21793,55 @@
       <c r="AB45" s="11"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AE45" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AF45" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AG45" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AH45" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AI45" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AJ45" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AK45" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="AL45">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM45">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
       <c r="AN45">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.1457137145141711</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="2"/>
+        <v>5.3592852858856288</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="3"/>
+        <v>8.9321421431427126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -21517,47 +21880,55 @@
       <c r="AB46" s="11"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2</v>
+      </c>
+      <c r="AE46" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AF46" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AG46" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AH46" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2</v>
+      </c>
+      <c r="AI46" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AJ46" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AK46" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
-      </c>
-      <c r="AE46" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>12</v>
-      </c>
-      <c r="AF46" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>18</v>
-      </c>
-      <c r="AG46" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>18</v>
-      </c>
-      <c r="AH46" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>14</v>
-      </c>
-      <c r="AI46" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>11</v>
-      </c>
-      <c r="AJ46" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>11</v>
       </c>
       <c r="AL46">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM46">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
       <c r="AN46">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.5964204930474679</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="2"/>
+        <v>2.6973153697856009</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="3"/>
+        <v>4.4955256163093349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -21607,47 +21978,55 @@
       <c r="AB47" s="11"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AE47" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AF47" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AG47" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3</v>
       </c>
       <c r="AH47" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AI47" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AJ47" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AK47" s="3">
+        <f t="shared" si="0"/>
+        <v>16.285714285714285</v>
       </c>
       <c r="AL47">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM47">
-        <f t="shared" si="0"/>
-        <v>16.285714285714285</v>
-      </c>
       <c r="AN47">
         <f t="shared" si="1"/>
-        <v>16.285714285714285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.6055017266839382</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="2"/>
+        <v>4.9541262950129541</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="3"/>
+        <v>8.2568771583549232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -21697,47 +22076,55 @@
       <c r="AB48" s="11"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AE48" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AF48" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AG48" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3</v>
       </c>
       <c r="AH48" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AI48" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AJ48" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AK48" s="3">
+        <f t="shared" si="0"/>
+        <v>16.285714285714285</v>
       </c>
       <c r="AL48">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>2</v>
       </c>
-      <c r="AM48">
-        <f t="shared" si="0"/>
-        <v>16.285714285714285</v>
-      </c>
       <c r="AN48">
         <f t="shared" si="1"/>
-        <v>8.1428571428571423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13.211003453367876</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="2"/>
+        <v>9.9082525900259082</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" si="3"/>
+        <v>16.513754316709846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -21781,47 +22168,55 @@
       <c r="AB49" s="11"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AE49" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AF49" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AG49" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AH49" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AI49" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AJ49" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AK49" s="3">
+        <f t="shared" si="0"/>
+        <v>14.714285714285715</v>
       </c>
       <c r="AL49">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM49">
-        <f t="shared" si="0"/>
-        <v>14.714285714285714</v>
-      </c>
       <c r="AN49">
         <f t="shared" si="1"/>
-        <v>9.8095238095238084</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.0483395703074621</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="2"/>
+        <v>6.7862546777305965</v>
+      </c>
+      <c r="AP49">
+        <f t="shared" si="3"/>
+        <v>11.310424462884329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -21871,47 +22266,55 @@
       <c r="AB50" s="11"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AE50" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AF50" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>32</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="AG50" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3</v>
       </c>
       <c r="AH50" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AI50" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AJ50" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AK50" s="3">
+        <f t="shared" si="0"/>
+        <v>17.142857142857142</v>
       </c>
       <c r="AL50">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM50">
-        <f t="shared" si="0"/>
-        <v>17.142857142857142</v>
-      </c>
       <c r="AN50">
         <f t="shared" si="1"/>
-        <v>11.428571428571429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.684243596272493</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="2"/>
+        <v>8.0131826972043712</v>
+      </c>
+      <c r="AP50">
+        <f t="shared" si="3"/>
+        <v>13.355304495340617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -21955,47 +22358,55 @@
       <c r="AB51" s="11"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AE51" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AF51" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>29</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>4.1428571428571432</v>
       </c>
       <c r="AG51" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AH51" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2</v>
       </c>
       <c r="AI51" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AJ51" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AK51" s="3">
+        <f t="shared" si="0"/>
+        <v>16.428571428571427</v>
       </c>
       <c r="AL51">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM51">
-        <f t="shared" si="0"/>
-        <v>16.428571428571427</v>
-      </c>
       <c r="AN51">
         <f t="shared" si="1"/>
-        <v>16.428571428571427</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.6224725637138624</v>
+      </c>
+      <c r="AO51">
+        <f t="shared" si="2"/>
+        <v>4.9668544227853975</v>
+      </c>
+      <c r="AP51">
+        <f t="shared" si="3"/>
+        <v>8.2780907046423291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -22045,47 +22456,55 @@
       <c r="AB52" s="11"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>31</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4.4285714285714288</v>
       </c>
       <c r="AE52" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2</v>
       </c>
       <c r="AF52" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AG52" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AH52" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AI52" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ52" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AK52" s="3">
+        <f t="shared" si="0"/>
+        <v>19.571428571428569</v>
       </c>
       <c r="AL52">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM52">
-        <f t="shared" si="0"/>
-        <v>19.571428571428573</v>
-      </c>
       <c r="AN52">
         <f t="shared" si="1"/>
-        <v>15.657142857142858</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.7202581430405921</v>
+      </c>
+      <c r="AO52">
+        <f t="shared" si="2"/>
+        <v>7.290193607280445</v>
+      </c>
+      <c r="AP52">
+        <f t="shared" si="3"/>
+        <v>12.150322678800739</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -22130,47 +22549,55 @@
       <c r="AB53" s="11"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="AE53" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AF53" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AG53" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AH53" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AI53" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AJ53" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AK53" s="3">
+        <f t="shared" si="0"/>
+        <v>16.142857142857142</v>
       </c>
       <c r="AL53">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM53">
-        <f t="shared" si="0"/>
-        <v>16.142857142857142</v>
-      </c>
       <c r="AN53">
         <f t="shared" si="1"/>
-        <v>16.142857142857142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.5946793643335946</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" si="2"/>
+        <v>4.9460095232501962</v>
+      </c>
+      <c r="AP53">
+        <f t="shared" si="3"/>
+        <v>8.2433492054169939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -22209,47 +22636,55 @@
       <c r="AB54" s="11"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AE54" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AF54" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AG54" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AH54" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AI54" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AJ54" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AK54" s="3">
+        <f t="shared" si="0"/>
+        <v>11.428571428571429</v>
       </c>
       <c r="AL54">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM54">
-        <f t="shared" si="0"/>
-        <v>11.428571428571429</v>
-      </c>
       <c r="AN54">
         <f t="shared" si="1"/>
-        <v>17.142857142857146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.9783801468784552</v>
+      </c>
+      <c r="AO54">
+        <f t="shared" si="2"/>
+        <v>2.2337851101588408</v>
+      </c>
+      <c r="AP54">
+        <f t="shared" si="3"/>
+        <v>3.7229751835980682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -22282,47 +22717,55 @@
       <c r="AB55" s="11"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AE55" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AF55" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AG55" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1</v>
       </c>
       <c r="AH55" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AI55" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>5</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AJ55" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1</v>
+      </c>
+      <c r="AK55" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2857142857142856</v>
       </c>
       <c r="AL55">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM55">
-        <f t="shared" si="0"/>
-        <v>7.2857142857142856</v>
-      </c>
       <c r="AN55">
         <f t="shared" si="1"/>
-        <v>10.928571428571429</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.9166296949998196</v>
+      </c>
+      <c r="AO55">
+        <f t="shared" si="2"/>
+        <v>1.4374722712498647</v>
+      </c>
+      <c r="AP55">
+        <f t="shared" si="3"/>
+        <v>2.3957871187497748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -22361,47 +22804,55 @@
       <c r="AB56" s="11"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AE56" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1</v>
       </c>
       <c r="AF56" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AG56" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AH56" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AI56" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AJ56" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AK56" s="3">
+        <f t="shared" si="0"/>
+        <v>11.285714285714286</v>
       </c>
       <c r="AL56">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM56">
-        <f t="shared" si="0"/>
-        <v>11.285714285714286</v>
-      </c>
       <c r="AN56">
         <f t="shared" si="1"/>
-        <v>16.928571428571431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.9585189651445836</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="2"/>
+        <v>2.2188892238584379</v>
+      </c>
+      <c r="AP56">
+        <f t="shared" si="3"/>
+        <v>3.6981487064307297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -22451,47 +22902,55 @@
       <c r="AB57" s="11"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AE57" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AF57" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>32</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="AG57" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3</v>
       </c>
       <c r="AH57" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AI57" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="AJ57" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AK57" s="3">
+        <f t="shared" si="0"/>
+        <v>17.142857142857142</v>
       </c>
       <c r="AL57">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM57">
-        <f t="shared" si="0"/>
-        <v>17.142857142857142</v>
-      </c>
       <c r="AN57">
         <f t="shared" si="1"/>
-        <v>17.142857142857142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.1228290641816621</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" si="2"/>
+        <v>5.3421217981362465</v>
+      </c>
+      <c r="AP57">
+        <f t="shared" si="3"/>
+        <v>8.9035363302270785</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -22529,47 +22988,55 @@
       <c r="AB58" s="11"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AE58" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>6</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AF58" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AG58" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AH58" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AI58" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1</v>
       </c>
       <c r="AJ58" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="AK58" s="3">
+        <f t="shared" si="0"/>
+        <v>11.857142857142858</v>
       </c>
       <c r="AL58">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM58">
-        <f t="shared" si="0"/>
-        <v>11.857142857142858</v>
-      </c>
       <c r="AN58">
         <f t="shared" si="1"/>
-        <v>11.857142857142858</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.8885538949339065</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="2"/>
+        <v>3.6664154212004303</v>
+      </c>
+      <c r="AP58">
+        <f t="shared" si="3"/>
+        <v>6.1106923686673831</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -22608,47 +23075,55 @@
       <c r="AB59" s="11"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AE59" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AF59" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AG59" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AH59" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AI59" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AJ59" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AK59" s="3">
+        <f t="shared" si="0"/>
+        <v>15.285714285714286</v>
       </c>
       <c r="AL59">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM59">
-        <f t="shared" si="0"/>
-        <v>15.285714285714286</v>
-      </c>
       <c r="AN59">
         <f t="shared" si="1"/>
-        <v>22.928571428571431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.1698627198075497</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="2"/>
+        <v>3.1273970398556616</v>
+      </c>
+      <c r="AP59">
+        <f t="shared" si="3"/>
+        <v>5.2123283997594374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -22693,47 +23168,55 @@
       <c r="AB60" s="11"/>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3</v>
       </c>
       <c r="AE60" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AF60" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AG60" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AH60" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AI60" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AJ60" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="AK60" s="3">
+        <f t="shared" si="0"/>
+        <v>13.571428571428571</v>
       </c>
       <c r="AL60">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AM60">
-        <f t="shared" si="0"/>
-        <v>13.571428571428571</v>
-      </c>
       <c r="AN60">
         <f t="shared" si="1"/>
-        <v>16.285714285714288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.6214402247099216</v>
+      </c>
+      <c r="AO60">
+        <f t="shared" si="2"/>
+        <v>3.4660801685324412</v>
+      </c>
+      <c r="AP60">
+        <f t="shared" si="3"/>
+        <v>5.7768002808874019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -22774,47 +23257,55 @@
       <c r="AB61" s="11"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AE61" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>7</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1</v>
       </c>
       <c r="AF61" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AG61" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AH61" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AI61" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AJ61" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="AK61" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="AL61">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
-      <c r="AM61">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
       <c r="AN61">
         <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.1133009887941743</v>
+      </c>
+      <c r="AO61">
+        <f t="shared" si="2"/>
+        <v>4.5849757415956311</v>
+      </c>
+      <c r="AP61">
+        <f t="shared" si="3"/>
+        <v>7.6416262359927183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -22855,47 +23346,55 @@
       <c r="AB62" s="11"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AE62" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AF62" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AG62" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AH62" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AI62" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AJ62" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AK62" s="3">
+        <f t="shared" si="0"/>
+        <v>15.285714285714286</v>
       </c>
       <c r="AL62">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.75</v>
       </c>
-      <c r="AM62">
-        <f t="shared" si="0"/>
-        <v>15.285714285714286</v>
-      </c>
       <c r="AN62">
         <f t="shared" si="1"/>
-        <v>20.380952380952383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.6910955597834931</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" si="2"/>
+        <v>3.5183216698376203</v>
+      </c>
+      <c r="AP62">
+        <f t="shared" si="3"/>
+        <v>5.8638694497293669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -22937,47 +23436,55 @@
       <c r="AB63" s="11"/>
       <c r="AC63" s="3"/>
       <c r="AD63" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AE63" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>9</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="AF63" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AG63" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AH63" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AI63" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="AJ63" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>8</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="AK63" s="3">
+        <f t="shared" si="0"/>
+        <v>13.857142857142856</v>
       </c>
       <c r="AL63">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM63">
-        <f t="shared" si="0"/>
-        <v>13.857142857142858</v>
-      </c>
       <c r="AN63">
         <f t="shared" si="1"/>
-        <v>20.785714285714288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.8320761026153729</v>
+      </c>
+      <c r="AO63">
+        <f t="shared" si="2"/>
+        <v>2.8740570769615301</v>
+      </c>
+      <c r="AP63">
+        <f t="shared" si="3"/>
+        <v>4.7900951282692166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -23027,47 +23534,55 @@
       <c r="AB64" s="11"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AE64" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AF64" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AG64" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AH64" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AI64" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AJ64" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AK64" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="AL64">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM64">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
       <c r="AN64">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.2604604340417502</v>
+      </c>
+      <c r="AO64">
+        <f t="shared" si="2"/>
+        <v>5.4453453255313118</v>
+      </c>
+      <c r="AP64">
+        <f t="shared" si="3"/>
+        <v>9.0755755425521869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -23120,47 +23635,55 @@
       <c r="AB65" s="11"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AE65" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AF65" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AG65" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AH65" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AI65" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AJ65" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AK65" s="3">
+        <f t="shared" si="0"/>
+        <v>16.571428571428569</v>
       </c>
       <c r="AL65">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM65">
-        <f t="shared" si="0"/>
-        <v>16.571428571428573</v>
-      </c>
       <c r="AN65">
         <f t="shared" si="1"/>
-        <v>11.047619047619049</v>
-      </c>
-    </row>
-    <row r="66" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.7729322151354676</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" si="2"/>
+        <v>7.3296991613516012</v>
+      </c>
+      <c r="AP65">
+        <f t="shared" si="3"/>
+        <v>12.216165268919335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -23202,47 +23725,55 @@
       <c r="AB66" s="11"/>
       <c r="AC66" s="3"/>
       <c r="AD66" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AE66" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AF66" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AG66" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AH66" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AI66" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AJ66" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AK66" s="3">
+        <f t="shared" si="0"/>
+        <v>18.285714285714285</v>
       </c>
       <c r="AL66">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM66">
-        <f t="shared" si="0"/>
-        <v>18.285714285714285</v>
-      </c>
       <c r="AN66">
         <f t="shared" si="1"/>
-        <v>27.428571428571427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.6754048413842195</v>
+      </c>
+      <c r="AO66">
+        <f t="shared" si="2"/>
+        <v>3.5065536310381646</v>
+      </c>
+      <c r="AP66">
+        <f t="shared" si="3"/>
+        <v>5.8442560517302748</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -23301,47 +23832,55 @@
       <c r="AB67" s="11"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>36</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="AE67" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="AF67" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>25</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.5714285714285716</v>
       </c>
       <c r="AG67" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>28</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>4</v>
       </c>
       <c r="AH67" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>3</v>
       </c>
       <c r="AI67" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AJ67" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>3</v>
+      </c>
+      <c r="AK67" s="3">
+        <f t="shared" ref="AK67:AK75" si="4">SUM(AD67:AJ67)</f>
+        <v>24.714285714285715</v>
       </c>
       <c r="AL67">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.75</v>
       </c>
-      <c r="AM67">
-        <f t="shared" ref="AM67:AM75" si="2">SUM(AD67:AJ67)/7</f>
-        <v>24.714285714285715</v>
-      </c>
       <c r="AN67">
-        <f t="shared" ref="AN67:AN75" si="3">AM67/AL67</f>
-        <v>32.952380952380956</v>
-      </c>
-    </row>
-    <row r="68" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AN67:AN75" si="5">SQRT(SUMSQ(AD67*AL67,AE67*AL67,AF67*AL67,AG67*AL67,AH67*AL67,AI67*AL67,AJ67*AL67))</f>
+        <v>7.1769721032917895</v>
+      </c>
+      <c r="AO67">
+        <f t="shared" ref="AO67:AO75" si="6">SQRT(SUMSQ(AD67*AL67*0.75, AE67*AL67*0.75, AF67*AL67*0.75, AG67*AL67*0.75, AH67*AL67*0.75, AI67*AL67*0.75, AJ67*AL67*0.75))</f>
+        <v>5.3827290774688423</v>
+      </c>
+      <c r="AP67">
+        <f t="shared" ref="AP67:AP75" si="7">SQRT(SUMSQ(AD67*AL67*1.25, AE67*AL67*1.25, AF67*AL67*1.25, AG67*AL67*1.25, AH67*AL67*1.25, AI67*AL67*1.25, AJ67*AL67*1.25))</f>
+        <v>8.9712151291147375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -23397,47 +23936,55 @@
       <c r="AB68" s="11"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="AE68" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AF68" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AG68" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AH68" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AI68" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ68" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="AK68" s="3">
+        <f t="shared" si="4"/>
+        <v>19.571428571428573</v>
       </c>
       <c r="AL68">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.75</v>
       </c>
-      <c r="AM68">
-        <f t="shared" si="2"/>
-        <v>19.571428571428573</v>
-      </c>
       <c r="AN68">
-        <f t="shared" si="3"/>
-        <v>26.095238095238098</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5.6522300096185623</v>
+      </c>
+      <c r="AO68">
+        <f t="shared" si="6"/>
+        <v>4.2391725072139224</v>
+      </c>
+      <c r="AP68">
+        <f t="shared" si="7"/>
+        <v>7.0652875120232039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -23488,47 +24035,55 @@
       <c r="AB69" s="11"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>32</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="AE69" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="AF69" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="AG69" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="AH69" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="AI69" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AJ69" s="3">
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AK69" s="3">
+        <f t="shared" si="4"/>
         <v>23</v>
-      </c>
-      <c r="AF69" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>26</v>
-      </c>
-      <c r="AG69" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>24</v>
-      </c>
-      <c r="AH69" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>19</v>
-      </c>
-      <c r="AI69" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>17</v>
-      </c>
-      <c r="AJ69" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>20</v>
       </c>
       <c r="AL69">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM69">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
       <c r="AN69">
-        <f t="shared" si="3"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5.913204410009671</v>
+      </c>
+      <c r="AO69">
+        <f t="shared" si="6"/>
+        <v>4.4349033075072528</v>
+      </c>
+      <c r="AP69">
+        <f t="shared" si="7"/>
+        <v>7.3915055125120892</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -23584,47 +24139,55 @@
       <c r="AB70" s="11"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AE70" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AF70" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AG70" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3</v>
       </c>
       <c r="AH70" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AI70" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AJ70" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AK70" s="3">
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="AL70">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM70">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
       <c r="AN70">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>7.6718409040557445</v>
+      </c>
+      <c r="AO70">
+        <f t="shared" si="6"/>
+        <v>5.7538806780418081</v>
+      </c>
+      <c r="AP70">
+        <f t="shared" si="7"/>
+        <v>9.589801130069679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -23680,47 +24243,55 @@
       <c r="AB71" s="11"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>32</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="AE71" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AF71" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AG71" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>24</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="AH71" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AI71" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AJ71" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>20</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AK71" s="3">
+        <f t="shared" si="4"/>
+        <v>22.142857142857142</v>
       </c>
       <c r="AL71">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM71">
-        <f t="shared" si="2"/>
-        <v>22.142857142857142</v>
-      </c>
       <c r="AN71">
-        <f t="shared" si="3"/>
-        <v>22.142857142857142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>8.5463920063691567</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" si="6"/>
+        <v>6.4097940047768676</v>
+      </c>
+      <c r="AP71">
+        <f t="shared" si="7"/>
+        <v>10.682990007961445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -23773,47 +24344,55 @@
       <c r="AB72" s="11"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AE72" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AF72" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>28</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>4</v>
       </c>
       <c r="AG72" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>28</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>4</v>
       </c>
       <c r="AH72" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AI72" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AJ72" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AK72" s="3">
+        <f t="shared" si="4"/>
+        <v>22.285714285714288</v>
       </c>
       <c r="AL72">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="AM72">
-        <f t="shared" si="2"/>
-        <v>22.285714285714285</v>
-      </c>
       <c r="AN72">
-        <f t="shared" si="3"/>
-        <v>14.857142857142856</v>
-      </c>
-    </row>
-    <row r="73" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>12.92482187142876</v>
+      </c>
+      <c r="AO72">
+        <f t="shared" si="6"/>
+        <v>9.6936164035715713</v>
+      </c>
+      <c r="AP72">
+        <f t="shared" si="7"/>
+        <v>16.156027339285952</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -23863,47 +24442,55 @@
       <c r="AB73" s="11"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AE73" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>22</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3.1428571428571428</v>
       </c>
       <c r="AF73" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>30</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>4.2857142857142856</v>
       </c>
       <c r="AG73" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>27</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.8571428571428572</v>
       </c>
       <c r="AH73" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>19</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AI73" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>15</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="AJ73" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>18</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AK73" s="3">
+        <f t="shared" si="4"/>
+        <v>22.571428571428573</v>
       </c>
       <c r="AL73">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM73">
-        <f t="shared" si="2"/>
-        <v>22.571428571428573</v>
-      </c>
       <c r="AN73">
-        <f t="shared" si="3"/>
-        <v>22.571428571428573</v>
-      </c>
-    </row>
-    <row r="74" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>8.7505101892077448</v>
+      </c>
+      <c r="AO73">
+        <f t="shared" si="6"/>
+        <v>6.5628826419058086</v>
+      </c>
+      <c r="AP73">
+        <f t="shared" si="7"/>
+        <v>10.938137736509681</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -23959,47 +24546,55 @@
       <c r="AB74" s="11"/>
       <c r="AC74" s="3"/>
       <c r="AD74" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>26</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AE74" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>21</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>3</v>
       </c>
       <c r="AF74" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AG74" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>23</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>3.2857142857142856</v>
       </c>
       <c r="AH74" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>2.4285714285714284</v>
       </c>
       <c r="AI74" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>2</v>
       </c>
       <c r="AJ74" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>17</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AK74" s="3">
+        <f t="shared" si="4"/>
+        <v>20.142857142857142</v>
       </c>
       <c r="AL74">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AM74">
-        <f t="shared" si="2"/>
-        <v>20.142857142857142</v>
-      </c>
       <c r="AN74">
-        <f t="shared" si="3"/>
-        <v>20.142857142857142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>7.7578137042202657</v>
+      </c>
+      <c r="AO74">
+        <f t="shared" si="6"/>
+        <v>5.8183602781651986</v>
+      </c>
+      <c r="AP74">
+        <f t="shared" si="7"/>
+        <v>9.6972671302753319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -24034,47 +24629,55 @@
       <c r="AB75" s="11"/>
       <c r="AC75" s="3"/>
       <c r="AD75" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$2:$S$2)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AE75" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)</f>
-        <v>16</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$3:$S$3)/7</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AF75" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)</f>
-        <v>13</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$4:$S$4)/7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AG75" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)</f>
-        <v>14</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$5:$S$5)/7</f>
+        <v>2</v>
       </c>
       <c r="AH75" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)</f>
-        <v>12</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$6:$S$6)/7</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AI75" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)</f>
-        <v>10</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$7:$S$7)/7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="AJ75" s="3">
-        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)</f>
-        <v>11</v>
+        <f>SUMPRODUCT(Table_14[[#This Row],[Nickname]:[Sexual preferences]],'privacy values clean'!$B$8:$S$8)/7</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AK75" s="3">
+        <f t="shared" si="4"/>
+        <v>12.571428571428571</v>
       </c>
       <c r="AL75">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AM75">
-        <f t="shared" si="2"/>
-        <v>12.571428571428571</v>
-      </c>
       <c r="AN75">
-        <f t="shared" si="3"/>
-        <v>18.857142857142858</v>
-      </c>
-    </row>
-    <row r="76" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>3.2014735836136401</v>
+      </c>
+      <c r="AO75">
+        <f t="shared" si="6"/>
+        <v>2.4011051877102303</v>
+      </c>
+      <c r="AP75">
+        <f t="shared" si="7"/>
+        <v>4.0018419795170495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -24099,7 +24702,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -24185,7 +24788,7 @@
         <v>5.1496638245683073</v>
       </c>
     </row>
-    <row r="78" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -24271,7 +24874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -24357,7 +24960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -25376,7 +25979,31 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="AM2:AM75">
+  <conditionalFormatting sqref="AK2:AK75">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2:AN75">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AO75">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -25388,7 +26015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN75">
+  <conditionalFormatting sqref="AP2:AP75">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEAF0F5-4BE5-46D1-BA04-BE2A92FFF189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75149D0-ED8C-410C-A280-D721437810F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services clean" sheetId="4" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Services sum test'!$AD$2:$AD$75</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Services sum test'!$AG$2:$AG$75</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Services sum test'!$AF$2:$AF$75</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Services sum test'!$AF$2:$AF$75</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Services sum test'!$AG$2:$AG$75</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Services sum test'!$AE$2:$AE$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -981,11 +981,11 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
-    <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="20% - Énfasis1" xfId="5" builtinId="30"/>
+    <cellStyle name="60% - Énfasis5" xfId="6" builtinId="48"/>
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{D188F44A-CEAC-484B-9B6D-FABDEF7BDE4D}"/>
   </cellStyles>
@@ -1472,7 +1472,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1533,7 +1533,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3830,8 +3830,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="23401020" y="12368212"/>
-              <a:ext cx="3838575" cy="2543175"/>
+              <a:off x="24079200" y="12135802"/>
+              <a:ext cx="3952875" cy="2518410"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3850,9 +3850,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3908,8 +3908,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="23402925" y="15019972"/>
-              <a:ext cx="3838575" cy="2745105"/>
+              <a:off x="24081105" y="14762797"/>
+              <a:ext cx="3952875" cy="2718435"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3928,9 +3928,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3986,8 +3986,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="27484387" y="12370117"/>
-              <a:ext cx="4581525" cy="2543175"/>
+              <a:off x="28305442" y="12137707"/>
+              <a:ext cx="4714875" cy="2518410"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4006,9 +4006,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4064,8 +4064,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="27484387" y="14989492"/>
-              <a:ext cx="4581525" cy="2745105"/>
+              <a:off x="28305442" y="14732317"/>
+              <a:ext cx="4714875" cy="2718435"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4084,9 +4084,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4487,35 +4487,35 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="3" customWidth="1"/>
-    <col min="12" max="16" width="8.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
-    <col min="23" max="25" width="8.5703125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" style="3" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="3"/>
-    <col min="28" max="28" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="14.42578125" style="3"/>
+    <col min="6" max="6" width="10.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="3" customWidth="1"/>
+    <col min="12" max="16" width="8.88671875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="3" customWidth="1"/>
+    <col min="23" max="25" width="8.5546875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" style="3"/>
+    <col min="28" max="28" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="14.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -9047,10 +9047,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC76"/>
     </row>
-    <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J77" s="5" t="str">
         <f>'Privacy values'!A11</f>
         <v>sum</v>
@@ -9131,7 +9131,7 @@
       <c r="AE77"/>
       <c r="AF77"/>
     </row>
-    <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
@@ -9153,942 +9153,942 @@
       <c r="AE78"/>
       <c r="AF78"/>
     </row>
-    <row r="79" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC79"/>
     </row>
-    <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC80"/>
     </row>
-    <row r="81" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC81"/>
     </row>
-    <row r="82" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC82"/>
     </row>
-    <row r="83" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC83"/>
     </row>
-    <row r="84" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC84"/>
     </row>
-    <row r="85" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC85"/>
     </row>
-    <row r="86" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC86"/>
     </row>
-    <row r="87" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC87"/>
     </row>
-    <row r="88" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z88" s="10"/>
       <c r="AC88"/>
     </row>
-    <row r="89" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC89"/>
     </row>
-    <row r="90" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC90"/>
     </row>
-    <row r="91" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC91"/>
     </row>
-    <row r="92" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="Z76">
     <cfRule type="colorScale" priority="12">
@@ -10130,9 +10130,9 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -10614,39 +10614,39 @@
   <dimension ref="A1:AI988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
+      <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="3" customWidth="1"/>
-    <col min="12" max="16" width="8.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
-    <col min="23" max="25" width="8.5703125" style="3" customWidth="1"/>
-    <col min="30" max="31" width="8.85546875" style="3" customWidth="1"/>
-    <col min="32" max="33" width="14.42578125" style="3"/>
-    <col min="36" max="16384" width="14.42578125" style="3"/>
+    <col min="6" max="6" width="10.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="3" customWidth="1"/>
+    <col min="12" max="16" width="8.88671875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="3" customWidth="1"/>
+    <col min="23" max="25" width="8.5546875" style="3" customWidth="1"/>
+    <col min="30" max="31" width="8.88671875" style="3" customWidth="1"/>
+    <col min="32" max="33" width="14.44140625" style="3"/>
+    <col min="36" max="16384" width="14.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AC76" t="s">
         <v>217</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J77" s="5" t="str">
         <f>'Privacy values'!A10</f>
         <v>mean</v>
@@ -16211,7 +16211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J78" s="5" t="str">
         <f>'Privacy values'!A11</f>
         <v>sum</v>
@@ -16308,7 +16308,7 @@
         <v>11.657119026276174</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J79" s="5" t="str">
         <f>'Privacy values'!A12</f>
         <v>max</v>
@@ -16405,7 +16405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J80" s="5" t="str">
         <f>'Privacy values'!A13</f>
         <v>median</v>
@@ -16502,8 +16502,8 @@
         <v>4.8947774334841219</v>
       </c>
     </row>
-    <row r="81" spans="28:33" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="28:33" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC82" t="s">
         <v>222</v>
       </c>
@@ -16524,13 +16524,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AF84" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB85" s="12" t="s">
         <v>216</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC86" t="s">
         <v>226</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC87" t="s">
         <v>225</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC88" t="s">
         <v>227</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC89" t="s">
         <v>228</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC90" t="s">
         <v>229</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC91" t="s">
         <v>230</v>
       </c>
@@ -16586,903 +16586,903 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="AD7">
     <cfRule type="colorScale" priority="5">
@@ -17558,41 +17558,41 @@
   <dimension ref="A1:AQ988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN7" sqref="AN7"/>
+      <selection pane="bottomRight" activeCell="AM25" sqref="AM25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="3" customWidth="1"/>
-    <col min="12" max="16" width="8.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
-    <col min="23" max="25" width="8.5703125" style="3" customWidth="1"/>
-    <col min="30" max="31" width="8.85546875" style="3" customWidth="1"/>
-    <col min="32" max="33" width="14.42578125" style="3"/>
-    <col min="36" max="39" width="14.42578125" style="3"/>
-    <col min="40" max="40" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="3" customWidth="1"/>
+    <col min="12" max="16" width="8.88671875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="3" customWidth="1"/>
+    <col min="23" max="25" width="8.5546875" style="3" customWidth="1"/>
+    <col min="30" max="31" width="8.88671875" style="3" customWidth="1"/>
+    <col min="32" max="33" width="14.44140625" style="3"/>
+    <col min="36" max="39" width="14.44140625" style="3"/>
+    <col min="40" max="40" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="14.42578125" style="3"/>
+    <col min="43" max="16384" width="14.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="AQ1" s="3"/>
     </row>
-    <row r="2" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
@@ -17797,6 +17797,10 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM2">
+        <f>SQRT(SUMSQ(AD2:AJ2))</f>
+        <v>6.6424731071786685</v>
+      </c>
       <c r="AN2">
         <f>SQRT(SUMSQ(AD2*AL2,AE2*AL2,AF2*AL2,AG2*AL2,AH2*AL2,AI2*AL2,AJ2*AL2))</f>
         <v>9.9637096607680018</v>
@@ -17810,7 +17814,7 @@
         <v>12.454637075960004</v>
       </c>
     </row>
-    <row r="3" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -17893,20 +17897,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.83333333333333326</v>
       </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM66" si="1">SQRT(SUMSQ(AD3:AJ3))</f>
+        <v>5.9778502722593361</v>
+      </c>
       <c r="AN3">
-        <f t="shared" ref="AN3:AN66" si="1">SQRT(SUMSQ(AD3*AL3,AE3*AL3,AF3*AL3,AG3*AL3,AH3*AL3,AI3*AL3,AJ3*AL3))</f>
+        <f t="shared" ref="AN3:AN66" si="2">SQRT(SUMSQ(AD3*AL3,AE3*AL3,AF3*AL3,AG3*AL3,AH3*AL3,AI3*AL3,AJ3*AL3))</f>
         <v>4.9815418935494469</v>
       </c>
       <c r="AO3">
-        <f t="shared" ref="AO3:AO66" si="2">SQRT(SUMSQ(AD3*AL3*0.75, AE3*AL3*0.75, AF3*AL3*0.75, AG3*AL3*0.75, AH3*AL3*0.75, AI3*AL3*0.75, AJ3*AL3*0.75))</f>
+        <f t="shared" ref="AO3:AO66" si="3">SQRT(SUMSQ(AD3*AL3*0.75, AE3*AL3*0.75, AF3*AL3*0.75, AG3*AL3*0.75, AH3*AL3*0.75, AI3*AL3*0.75, AJ3*AL3*0.75))</f>
         <v>3.7361564201620849</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP66" si="3">SQRT(SUMSQ(AD3*AL3*1.25, AE3*AL3*1.25, AF3*AL3*1.25, AG3*AL3*1.25, AH3*AL3*1.25, AI3*AL3*1.25, AJ3*AL3*1.25))</f>
+        <f t="shared" ref="AP3:AP66" si="4">SQRT(SUMSQ(AD3*AL3*1.25, AE3*AL3*1.25, AF3*AL3*1.25, AG3*AL3*1.25, AH3*AL3*1.25, AI3*AL3*1.25, AJ3*AL3*1.25))</f>
         <v>6.2269273669368079</v>
       </c>
     </row>
-    <row r="4" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -17990,20 +17998,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM4">
+        <f t="shared" si="1"/>
+        <v>6.1445180478875905</v>
+      </c>
       <c r="AN4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6806475598594881</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7604856698946163</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.600809449824359</v>
       </c>
     </row>
-    <row r="5" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -18085,20 +18097,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.5</v>
       </c>
+      <c r="AM5">
+        <f t="shared" si="1"/>
+        <v>7.109924078931031</v>
+      </c>
       <c r="AN5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5549620394655155</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6662215295991363</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4437025493318947</v>
       </c>
     </row>
-    <row r="6" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -18185,20 +18201,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM6">
+        <f t="shared" si="1"/>
+        <v>6.3807746954649414</v>
+      </c>
       <c r="AN6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5711620431974112</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1783715323980584</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.963952553996764</v>
       </c>
     </row>
-    <row r="7" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -18289,20 +18309,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.7499999999999998</v>
       </c>
+      <c r="AM7">
+        <f t="shared" si="1"/>
+        <v>10.179010015613462</v>
+      </c>
       <c r="AN7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.813267527323557</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.359950645492667</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.266584409154447</v>
       </c>
     </row>
-    <row r="8" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -18364,20 +18388,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM8">
+        <f t="shared" si="1"/>
+        <v>2.8392295591931132</v>
+      </c>
       <c r="AN8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.892819706128742</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4196147795965564</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3660246326609276</v>
       </c>
     </row>
-    <row r="9" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -18454,20 +18482,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.83333333333333326</v>
       </c>
+      <c r="AM9">
+        <f t="shared" si="1"/>
+        <v>7.5363066794914166</v>
+      </c>
       <c r="AN9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2802555662428459</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7101916746821342</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8503194578035576</v>
       </c>
     </row>
-    <row r="10" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -18534,20 +18566,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN10">
+      <c r="AM10">
         <f t="shared" si="1"/>
         <v>2.5314350209527641</v>
       </c>
+      <c r="AN10">
+        <f t="shared" si="2"/>
+        <v>2.5314350209527641</v>
+      </c>
       <c r="AO10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8985762657145731</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1642937761909558</v>
       </c>
     </row>
-    <row r="11" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -18617,20 +18653,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN11">
+      <c r="AM11">
         <f t="shared" si="1"/>
         <v>3.1783707801838554</v>
       </c>
+      <c r="AN11">
+        <f t="shared" si="2"/>
+        <v>3.1783707801838554</v>
+      </c>
       <c r="AO11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3837780851378914</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9729634752298195</v>
       </c>
     </row>
-    <row r="12" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -18712,20 +18752,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>2</v>
       </c>
+      <c r="AM12">
+        <f t="shared" si="1"/>
+        <v>6.9164105353772589</v>
+      </c>
       <c r="AN12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.832821070754518</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.374615803065888</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.29102633844315</v>
       </c>
     </row>
-    <row r="13" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -18796,20 +18840,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.1666666666666665</v>
       </c>
+      <c r="AM13">
+        <f t="shared" si="1"/>
+        <v>4.2015546199579266</v>
+      </c>
       <c r="AN13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9018137232842474</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6763602924631855</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1272671541053088</v>
       </c>
     </row>
-    <row r="14" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -18894,20 +18942,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM14">
+        <f t="shared" si="1"/>
+        <v>7.198355821339498</v>
+      </c>
       <c r="AN14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9979447766743732</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7484585825057799</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.247430970842967</v>
       </c>
     </row>
-    <row r="15" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -18989,20 +19041,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN15">
+      <c r="AM15">
         <f t="shared" si="1"/>
         <v>7.2195878677104437</v>
       </c>
+      <c r="AN15">
+        <f t="shared" si="2"/>
+        <v>7.2195878677104437</v>
+      </c>
       <c r="AO15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4146909007828325</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.024484834638054</v>
       </c>
     </row>
-    <row r="16" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -19075,20 +19131,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM16">
+        <f t="shared" si="1"/>
+        <v>3.0438965360946453</v>
+      </c>
       <c r="AN16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5658448041419675</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4243836031064756</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7073060051774593</v>
       </c>
     </row>
-    <row r="17" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -19164,20 +19224,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>2</v>
       </c>
+      <c r="AM17">
+        <f t="shared" si="1"/>
+        <v>4.1032590332414491</v>
+      </c>
       <c r="AN17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2065180664828983</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1548885498621733</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.258147583103622</v>
       </c>
     </row>
-    <row r="18" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -19250,20 +19314,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.75</v>
       </c>
+      <c r="AM18">
+        <f t="shared" si="1"/>
+        <v>4.1032590332414491</v>
+      </c>
       <c r="AN18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0774442749310866</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3080832061983152</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.846805343663859</v>
       </c>
     </row>
-    <row r="19" spans="1:42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -19348,20 +19416,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM19">
+        <f t="shared" si="1"/>
+        <v>5.9795570104160998</v>
+      </c>
       <c r="AN19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4744462630201252</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6058346972650934</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3430578287751551</v>
       </c>
     </row>
-    <row r="20" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -19434,20 +19506,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN20">
+      <c r="AM20">
         <f t="shared" si="1"/>
         <v>4.0758121764820299</v>
       </c>
+      <c r="AN20">
+        <f t="shared" si="2"/>
+        <v>4.0758121764820299</v>
+      </c>
       <c r="AO20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0568591323615224</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0947652206025369</v>
       </c>
     </row>
-    <row r="21" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -19521,20 +19597,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN21">
+      <c r="AM21">
         <f t="shared" si="1"/>
         <v>2.906712849910829</v>
       </c>
+      <c r="AN21">
+        <f t="shared" si="2"/>
+        <v>2.906712849910829</v>
+      </c>
       <c r="AO21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1800346374331219</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6333910623885366</v>
       </c>
     </row>
-    <row r="22" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -19596,20 +19676,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM22">
+        <f t="shared" si="1"/>
+        <v>2.1523598819027661</v>
+      </c>
       <c r="AN22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4349065879351774</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.076179940951383</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7936332349189716</v>
       </c>
     </row>
-    <row r="23" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -19682,20 +19766,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN23">
+      <c r="AM23">
         <f t="shared" si="1"/>
         <v>4.1032590332414491</v>
       </c>
+      <c r="AN23">
+        <f t="shared" si="2"/>
+        <v>4.1032590332414491</v>
+      </c>
       <c r="AO23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0774442749310866</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1290737915518108</v>
       </c>
     </row>
-    <row r="24" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -19766,20 +19854,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM24">
+        <f t="shared" si="1"/>
+        <v>3.0739192559071444</v>
+      </c>
       <c r="AN24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0492795039380964</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5369596279535722</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5615993799226202</v>
       </c>
     </row>
-    <row r="25" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -19875,20 +19967,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN25">
+      <c r="AM25">
         <f t="shared" si="1"/>
         <v>11.696851137404984</v>
       </c>
+      <c r="AN25">
+        <f t="shared" si="2"/>
+        <v>11.696851137404984</v>
+      </c>
       <c r="AO25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.772638353053738</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.621063921756228</v>
       </c>
     </row>
-    <row r="26" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -19978,20 +20074,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM26">
+        <f t="shared" si="1"/>
+        <v>10.260882724488878</v>
+      </c>
       <c r="AN26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.391324086733317</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.543493065049988</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.239155108416647</v>
       </c>
     </row>
-    <row r="27" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -20087,20 +20187,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM27">
+        <f t="shared" si="1"/>
+        <v>11.10524788612325</v>
+      </c>
       <c r="AN27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.881559857654061</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.411169893240546</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.351949822067578</v>
       </c>
     </row>
-    <row r="28" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -20187,20 +20291,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM28">
+        <f t="shared" si="1"/>
+        <v>8.1703795530450307</v>
+      </c>
       <c r="AN28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.255569329567546</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1916769971756604</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.319461661959433</v>
       </c>
     </row>
-    <row r="29" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -20281,20 +20389,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN29">
+      <c r="AM29">
         <f t="shared" si="1"/>
         <v>6.8377702535853251</v>
       </c>
+      <c r="AN29">
+        <f t="shared" si="2"/>
+        <v>6.8377702535853251</v>
+      </c>
       <c r="AO29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1283276901889945</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5472128169816575</v>
       </c>
     </row>
-    <row r="30" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -20359,20 +20471,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM30">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
       <c r="AN30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4285714285714284</v>
       </c>
       <c r="AO30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0714285714285712</v>
       </c>
       <c r="AP30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7857142857142856</v>
       </c>
     </row>
-    <row r="31" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -20443,20 +20559,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM31">
+        <f t="shared" si="1"/>
+        <v>2.2946254863155731</v>
+      </c>
       <c r="AN31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4419382294733594</v>
       </c>
       <c r="AO31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5814536721050199</v>
       </c>
       <c r="AP31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3024227868416984</v>
       </c>
     </row>
-    <row r="32" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -20527,20 +20647,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM32">
+        <f t="shared" si="1"/>
+        <v>3.6783980541667809</v>
+      </c>
       <c r="AN32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4522653694445204</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8391990270833904</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0653317118056504</v>
       </c>
     </row>
-    <row r="33" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -20623,20 +20747,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.1666666666666665</v>
       </c>
+      <c r="AM33">
+        <f t="shared" si="1"/>
+        <v>6.5121550400237034</v>
+      </c>
       <c r="AN33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5975142133609861</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.69813566002074</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4968927667012331</v>
       </c>
     </row>
-    <row r="34" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -20721,20 +20849,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM34">
+        <f t="shared" si="1"/>
+        <v>7.6224694696880571</v>
+      </c>
       <c r="AN34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5280868371100702</v>
       </c>
       <c r="AO34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1460651278325535</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.910108546387589</v>
       </c>
     </row>
-    <row r="35" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -20816,20 +20948,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN35">
+      <c r="AM35">
         <f t="shared" si="1"/>
         <v>8.7516762242837718</v>
       </c>
+      <c r="AN35">
+        <f t="shared" si="2"/>
+        <v>8.7516762242837718</v>
+      </c>
       <c r="AO35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5637571682128293</v>
       </c>
       <c r="AP35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.939595280354716</v>
       </c>
     </row>
-    <row r="36" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -20920,20 +21056,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM36">
+        <f t="shared" si="1"/>
+        <v>9.175166127617949</v>
+      </c>
       <c r="AN36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.468957659522436</v>
       </c>
       <c r="AO36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6017182446418268</v>
       </c>
       <c r="AP36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.336197074403046</v>
       </c>
     </row>
-    <row r="37" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -21027,20 +21167,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM37">
+        <f t="shared" si="1"/>
+        <v>10.029548181981772</v>
+      </c>
       <c r="AN37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.536935227477215</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4027014206079116</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.671169034346519</v>
       </c>
     </row>
-    <row r="38" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -21122,20 +21266,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN38">
+      <c r="AM38">
         <f t="shared" si="1"/>
         <v>5.0527826239506846</v>
       </c>
+      <c r="AN38">
+        <f t="shared" si="2"/>
+        <v>5.0527826239506846</v>
+      </c>
       <c r="AO38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7895869679630128</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3159782799383546</v>
       </c>
     </row>
-    <row r="39" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -21220,20 +21368,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM39">
+        <f t="shared" si="1"/>
+        <v>8.7516762242837718</v>
+      </c>
       <c r="AN39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.939595280354716</v>
       </c>
       <c r="AO39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2046964602660371</v>
       </c>
       <c r="AP39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.674494100443395</v>
       </c>
     </row>
-    <row r="40" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -21319,20 +21471,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM40">
+        <f t="shared" si="1"/>
+        <v>6.6193901932589112</v>
+      </c>
       <c r="AN40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4129267955059408</v>
       </c>
       <c r="AO40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3096950966294556</v>
       </c>
       <c r="AP40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5161584943824256</v>
       </c>
     </row>
-    <row r="41" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -21421,20 +21577,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM41">
+        <f t="shared" si="1"/>
+        <v>8.7376735333560163</v>
+      </c>
       <c r="AN41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8251156889040105</v>
       </c>
       <c r="AO41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3688367666780081</v>
       </c>
       <c r="AP41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2813946111300138</v>
       </c>
     </row>
-    <row r="42" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -21525,20 +21685,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN42">
+      <c r="AM42">
         <f t="shared" si="1"/>
         <v>8.0799575670738708</v>
       </c>
+      <c r="AN42">
+        <f t="shared" si="2"/>
+        <v>8.0799575670738708</v>
+      </c>
       <c r="AO42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0599681753054018</v>
       </c>
       <c r="AP42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.099946958842338</v>
       </c>
     </row>
-    <row r="43" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -21629,20 +21793,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM43">
+        <f t="shared" si="1"/>
+        <v>6.659349726175237</v>
+      </c>
       <c r="AN43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.989024589262856</v>
       </c>
       <c r="AO43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4917684419471415</v>
       </c>
       <c r="AP43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.48628073657857</v>
       </c>
     </row>
-    <row r="44" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -21736,20 +21904,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM44">
+        <f t="shared" si="1"/>
+        <v>9.1003476049331358</v>
+      </c>
       <c r="AN44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.650521407399705</v>
       </c>
       <c r="AO44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.237891055549778</v>
       </c>
       <c r="AP44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.063151759249628</v>
       </c>
     </row>
-    <row r="45" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -21828,20 +22000,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM45">
+        <f t="shared" si="1"/>
+        <v>4.763809143009448</v>
+      </c>
       <c r="AN45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1457137145141711</v>
       </c>
       <c r="AO45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3592852858856288</v>
       </c>
       <c r="AP45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9321421431427126</v>
       </c>
     </row>
-    <row r="46" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -21915,20 +22091,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM46">
+        <f t="shared" si="1"/>
+        <v>5.3946307395712019</v>
+      </c>
       <c r="AN46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5964204930474679</v>
       </c>
       <c r="AO46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6973153697856009</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4955256163093349</v>
       </c>
     </row>
-    <row r="47" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -22013,20 +22193,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN47">
+      <c r="AM47">
         <f t="shared" si="1"/>
         <v>6.6055017266839382</v>
       </c>
+      <c r="AN47">
+        <f t="shared" si="2"/>
+        <v>6.6055017266839382</v>
+      </c>
       <c r="AO47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9541262950129541</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2568771583549232</v>
       </c>
     </row>
-    <row r="48" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -22111,20 +22295,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>2</v>
       </c>
+      <c r="AM48">
+        <f t="shared" si="1"/>
+        <v>6.6055017266839382</v>
+      </c>
       <c r="AN48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.211003453367876</v>
       </c>
       <c r="AO48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9082525900259082</v>
       </c>
       <c r="AP48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.513754316709846</v>
       </c>
     </row>
-    <row r="49" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -22203,20 +22391,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM49">
+        <f t="shared" si="1"/>
+        <v>6.0322263802049747</v>
+      </c>
       <c r="AN49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0483395703074621</v>
       </c>
       <c r="AO49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7862546777305965</v>
       </c>
       <c r="AP49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.310424462884329</v>
       </c>
     </row>
-    <row r="50" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -22301,20 +22493,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM50">
+        <f t="shared" si="1"/>
+        <v>7.1228290641816621</v>
+      </c>
       <c r="AN50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.684243596272493</v>
       </c>
       <c r="AO50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0131826972043712</v>
       </c>
       <c r="AP50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.355304495340617</v>
       </c>
     </row>
-    <row r="51" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -22393,20 +22589,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN51">
+      <c r="AM51">
         <f t="shared" si="1"/>
         <v>6.6224725637138624</v>
       </c>
+      <c r="AN51">
+        <f t="shared" si="2"/>
+        <v>6.6224725637138624</v>
+      </c>
       <c r="AO51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9668544227853975</v>
       </c>
       <c r="AP51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2780907046423291</v>
       </c>
     </row>
-    <row r="52" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -22491,20 +22691,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM52">
+        <f t="shared" si="1"/>
+        <v>7.7762065144324737</v>
+      </c>
       <c r="AN52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7202581430405921</v>
       </c>
       <c r="AO52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.290193607280445</v>
       </c>
       <c r="AP52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.150322678800739</v>
       </c>
     </row>
-    <row r="53" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -22584,20 +22788,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN53">
+      <c r="AM53">
         <f t="shared" si="1"/>
         <v>6.5946793643335946</v>
       </c>
+      <c r="AN53">
+        <f t="shared" si="2"/>
+        <v>6.5946793643335946</v>
+      </c>
       <c r="AO53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9460095232501962</v>
       </c>
       <c r="AP53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2433492054169939</v>
       </c>
     </row>
-    <row r="54" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -22671,20 +22879,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM54">
+        <f t="shared" si="1"/>
+        <v>4.4675702203176826</v>
+      </c>
       <c r="AN54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9783801468784552</v>
       </c>
       <c r="AO54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2337851101588408</v>
       </c>
       <c r="AP54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7229751835980682</v>
       </c>
     </row>
-    <row r="55" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -22752,20 +22964,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM55">
+        <f t="shared" si="1"/>
+        <v>2.8749445424997297</v>
+      </c>
       <c r="AN55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9166296949998196</v>
       </c>
       <c r="AO55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4374722712498647</v>
       </c>
       <c r="AP55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3957871187497748</v>
       </c>
     </row>
-    <row r="56" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -22839,20 +23055,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM56">
+        <f t="shared" si="1"/>
+        <v>4.4377784477168758</v>
+      </c>
       <c r="AN56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9585189651445836</v>
       </c>
       <c r="AO56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2188892238584379</v>
       </c>
       <c r="AP56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6981487064307297</v>
       </c>
     </row>
-    <row r="57" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -22937,20 +23157,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN57">
+      <c r="AM57">
         <f t="shared" si="1"/>
         <v>7.1228290641816621</v>
       </c>
+      <c r="AN57">
+        <f t="shared" si="2"/>
+        <v>7.1228290641816621</v>
+      </c>
       <c r="AO57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3421217981362465</v>
       </c>
       <c r="AP57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9035363302270785</v>
       </c>
     </row>
-    <row r="58" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -23023,20 +23247,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN58">
+      <c r="AM58">
         <f t="shared" si="1"/>
         <v>4.8885538949339065</v>
       </c>
+      <c r="AN58">
+        <f t="shared" si="2"/>
+        <v>4.8885538949339065</v>
+      </c>
       <c r="AO58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6664154212004303</v>
       </c>
       <c r="AP58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1106923686673831</v>
       </c>
     </row>
-    <row r="59" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -23110,20 +23338,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM59">
+        <f t="shared" si="1"/>
+        <v>6.2547940797113242</v>
+      </c>
       <c r="AN59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1698627198075497</v>
       </c>
       <c r="AO59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1273970398556616</v>
       </c>
       <c r="AP59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2123283997594374</v>
       </c>
     </row>
-    <row r="60" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -23203,20 +23435,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.83333333333333326</v>
       </c>
+      <c r="AM60">
+        <f t="shared" si="1"/>
+        <v>5.5457282696519066</v>
+      </c>
       <c r="AN60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6214402247099216</v>
       </c>
       <c r="AO60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4660801685324412</v>
       </c>
       <c r="AP60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7768002808874019</v>
       </c>
     </row>
-    <row r="61" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -23292,20 +23528,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.25</v>
       </c>
+      <c r="AM61">
+        <f t="shared" si="1"/>
+        <v>4.8906407910353407</v>
+      </c>
       <c r="AN61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1133009887941743</v>
       </c>
       <c r="AO61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5849757415956311</v>
       </c>
       <c r="AP61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6416262359927183</v>
       </c>
     </row>
-    <row r="62" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -23381,20 +23621,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.75</v>
       </c>
+      <c r="AM62">
+        <f t="shared" si="1"/>
+        <v>6.2547940797113242</v>
+      </c>
       <c r="AN62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6910955597834931</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5183216698376203</v>
       </c>
       <c r="AP62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8638694497293669</v>
       </c>
     </row>
-    <row r="63" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -23471,20 +23715,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM63">
+        <f t="shared" si="1"/>
+        <v>5.7481141539230602</v>
+      </c>
       <c r="AN63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8320761026153729</v>
       </c>
       <c r="AO63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8740570769615301</v>
       </c>
       <c r="AP63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7900951282692166</v>
       </c>
     </row>
-    <row r="64" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -23569,20 +23817,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
-      <c r="AN64">
+      <c r="AM64">
         <f t="shared" si="1"/>
         <v>7.2604604340417502</v>
       </c>
+      <c r="AN64">
+        <f t="shared" si="2"/>
+        <v>7.2604604340417502</v>
+      </c>
       <c r="AO64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4453453255313118</v>
       </c>
       <c r="AP64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0755755425521869</v>
       </c>
     </row>
-    <row r="65" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -23670,20 +23922,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM65">
+        <f t="shared" si="1"/>
+        <v>6.5152881434236463</v>
+      </c>
       <c r="AN65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7729322151354676</v>
       </c>
       <c r="AO65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3296991613516012</v>
       </c>
       <c r="AP65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.216165268919335</v>
       </c>
     </row>
-    <row r="66" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -23760,20 +24016,24 @@
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM66">
+        <f t="shared" si="1"/>
+        <v>7.0131072620763293</v>
+      </c>
       <c r="AN66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6754048413842195</v>
       </c>
       <c r="AO66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5065536310381646</v>
       </c>
       <c r="AP66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8442560517302748</v>
       </c>
     </row>
-    <row r="67" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -23860,27 +24120,31 @@
         <v>3</v>
       </c>
       <c r="AK67" s="3">
-        <f t="shared" ref="AK67:AK75" si="4">SUM(AD67:AJ67)</f>
+        <f t="shared" ref="AK67:AK75" si="5">SUM(AD67:AJ67)</f>
         <v>24.714285714285715</v>
       </c>
       <c r="AL67">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.75</v>
       </c>
+      <c r="AM67">
+        <f t="shared" ref="AM67:AM75" si="6">SQRT(SUMSQ(AD67:AJ67))</f>
+        <v>9.569296137722386</v>
+      </c>
       <c r="AN67">
-        <f t="shared" ref="AN67:AN75" si="5">SQRT(SUMSQ(AD67*AL67,AE67*AL67,AF67*AL67,AG67*AL67,AH67*AL67,AI67*AL67,AJ67*AL67))</f>
+        <f t="shared" ref="AN67:AN75" si="7">SQRT(SUMSQ(AD67*AL67,AE67*AL67,AF67*AL67,AG67*AL67,AH67*AL67,AI67*AL67,AJ67*AL67))</f>
         <v>7.1769721032917895</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO75" si="6">SQRT(SUMSQ(AD67*AL67*0.75, AE67*AL67*0.75, AF67*AL67*0.75, AG67*AL67*0.75, AH67*AL67*0.75, AI67*AL67*0.75, AJ67*AL67*0.75))</f>
+        <f t="shared" ref="AO67:AO75" si="8">SQRT(SUMSQ(AD67*AL67*0.75, AE67*AL67*0.75, AF67*AL67*0.75, AG67*AL67*0.75, AH67*AL67*0.75, AI67*AL67*0.75, AJ67*AL67*0.75))</f>
         <v>5.3827290774688423</v>
       </c>
       <c r="AP67">
-        <f t="shared" ref="AP67:AP75" si="7">SQRT(SUMSQ(AD67*AL67*1.25, AE67*AL67*1.25, AF67*AL67*1.25, AG67*AL67*1.25, AH67*AL67*1.25, AI67*AL67*1.25, AJ67*AL67*1.25))</f>
+        <f t="shared" ref="AP67:AP75" si="9">SQRT(SUMSQ(AD67*AL67*1.25, AE67*AL67*1.25, AF67*AL67*1.25, AG67*AL67*1.25, AH67*AL67*1.25, AI67*AL67*1.25, AJ67*AL67*1.25))</f>
         <v>8.9712151291147375</v>
       </c>
     </row>
-    <row r="68" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -23964,27 +24228,31 @@
         <v>2.1428571428571428</v>
       </c>
       <c r="AK68" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.571428571428573</v>
       </c>
       <c r="AL68">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.75</v>
       </c>
+      <c r="AM68">
+        <f t="shared" si="6"/>
+        <v>7.5363066794914166</v>
+      </c>
       <c r="AN68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6522300096185623</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.2391725072139224</v>
       </c>
       <c r="AP68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0652875120232039</v>
       </c>
     </row>
-    <row r="69" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -24063,27 +24331,31 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="AK69" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="AL69">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM69">
+        <f t="shared" si="6"/>
+        <v>8.8698066150145074</v>
+      </c>
       <c r="AN69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.913204410009671</v>
       </c>
       <c r="AO69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4349033075072528</v>
       </c>
       <c r="AP69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3915055125120892</v>
       </c>
     </row>
-    <row r="70" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -24167,27 +24439,31 @@
         <v>2.4285714285714284</v>
       </c>
       <c r="AK70" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="AL70">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
+      <c r="AM70">
+        <f t="shared" si="6"/>
+        <v>7.6718409040557445</v>
+      </c>
       <c r="AN70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.6718409040557445</v>
       </c>
       <c r="AO70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.7538806780418081</v>
       </c>
       <c r="AP70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.589801130069679</v>
       </c>
     </row>
-    <row r="71" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -24271,27 +24547,31 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="AK71" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.142857142857142</v>
       </c>
       <c r="AL71">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
+      <c r="AM71">
+        <f t="shared" si="6"/>
+        <v>8.5463920063691567</v>
+      </c>
       <c r="AN71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.5463920063691567</v>
       </c>
       <c r="AO71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.4097940047768676</v>
       </c>
       <c r="AP71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.682990007961445</v>
       </c>
     </row>
-    <row r="72" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -24372,27 +24652,31 @@
         <v>2.5714285714285716</v>
       </c>
       <c r="AK72" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.285714285714288</v>
       </c>
       <c r="AL72">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1.5</v>
       </c>
+      <c r="AM72">
+        <f t="shared" si="6"/>
+        <v>8.6165479142858405</v>
+      </c>
       <c r="AN72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.92482187142876</v>
       </c>
       <c r="AO72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.6936164035715713</v>
       </c>
       <c r="AP72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16.156027339285952</v>
       </c>
     </row>
-    <row r="73" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -24470,27 +24754,31 @@
         <v>2.5714285714285716</v>
       </c>
       <c r="AK73" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.571428571428573</v>
       </c>
       <c r="AL73">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
+      <c r="AM73">
+        <f t="shared" si="6"/>
+        <v>8.7505101892077448</v>
+      </c>
       <c r="AN73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.7505101892077448</v>
       </c>
       <c r="AO73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.5628826419058086</v>
       </c>
       <c r="AP73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.938137736509681</v>
       </c>
     </row>
-    <row r="74" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -24574,27 +24862,31 @@
         <v>2.4285714285714284</v>
       </c>
       <c r="AK74" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.142857142857142</v>
       </c>
       <c r="AL74">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>1</v>
       </c>
+      <c r="AM74">
+        <f t="shared" si="6"/>
+        <v>7.7578137042202657</v>
+      </c>
       <c r="AN74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.7578137042202657</v>
       </c>
       <c r="AO74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.8183602781651986</v>
       </c>
       <c r="AP74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.6972671302753319</v>
       </c>
     </row>
-    <row r="75" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -24657,27 +24949,31 @@
         <v>1.5714285714285714</v>
       </c>
       <c r="AK75" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.571428571428571</v>
       </c>
       <c r="AL75">
         <f>(((IF(Table_14[[#This Row],[extra sec]]=1,1,0)+IF(Table_14[[#This Row],[min mask]]="l",1,0)+IF(Table_14[[#This Row],[min length]]&gt;7,1,0))/6+0.5)+IF(Table_14[[#This Row],[min length]]&gt;8,0.5,0))*IF(Table_14[[#This Row],[2fa]]=1,1.5,1)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AM75">
+        <f t="shared" si="6"/>
+        <v>4.8022103754204606</v>
+      </c>
       <c r="AN75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2014735836136401</v>
       </c>
       <c r="AO75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4011051877102303</v>
       </c>
       <c r="AP75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.0018419795170495</v>
       </c>
     </row>
-    <row r="76" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -24702,7 +24998,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -24788,7 +25084,7 @@
         <v>5.1496638245683073</v>
       </c>
     </row>
-    <row r="78" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -24874,7 +25170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -24960,7 +25256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -25046,940 +25342,952 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD81"/>
       <c r="AE81"/>
       <c r="AF81"/>
       <c r="AG81"/>
     </row>
-    <row r="82" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD82"/>
       <c r="AE82"/>
       <c r="AF82"/>
       <c r="AG82"/>
     </row>
-    <row r="83" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB85" s="12"/>
     </row>
-    <row r="86" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE86" s="13"/>
     </row>
-    <row r="87" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE87" s="13"/>
     </row>
-    <row r="88" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE88" s="13"/>
     </row>
-    <row r="89" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE89" s="14"/>
     </row>
-    <row r="90" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE90" s="13"/>
     </row>
-    <row r="91" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE91" s="13"/>
     </row>
-    <row r="92" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="AK2:AK75">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2:AN75">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -25991,7 +26299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN75">
+  <conditionalFormatting sqref="AO2:AO75">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -26003,7 +26311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO75">
+  <conditionalFormatting sqref="AP2:AP75">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -26015,7 +26323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AP75">
+  <conditionalFormatting sqref="AM2:AM75">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -26043,13 +26351,13 @@
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -26109,7 +26417,7 @@
       </c>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -26168,7 +26476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -26227,7 +26535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -26286,7 +26594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -26345,7 +26653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -26404,7 +26712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -26463,7 +26771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -26522,12 +26830,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -26608,7 +26916,7 @@
         <v>42.937374491664144</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>216</v>
       </c>
@@ -26689,7 +26997,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -26770,7 +27078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>218</v>
       </c>
@@ -26851,7 +27159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R15" t="s">
         <v>221</v>
       </c>

--- a/services/risk_dimensions.xlsx
+++ b/services/risk_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roise\Documents\Apam ciber\leaks\services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75149D0-ED8C-410C-A280-D721437810F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C547EED2-58A2-44DD-B3A7-283D3786D372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services clean" sheetId="4" r:id="rId1"/>
@@ -22,8 +22,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Services sum test'!$AD$2:$AD$75</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Services sum test'!$AF$2:$AF$75</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Services sum test'!$AG$2:$AG$75</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Services sum test'!$AE$2:$AE$75</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Services sum test'!$AE$2:$AE$75</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Services sum test'!$AG$2:$AG$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -501,9 +501,6 @@
     <t>aws.amazon.com</t>
   </si>
   <si>
-    <t>Internet</t>
-  </si>
-  <si>
     <t>amazon</t>
   </si>
   <si>
@@ -788,6 +785,9 @@
   <si>
     <t>R(sum dimensions)</t>
   </si>
+  <si>
+    <t>NetworkOperations</t>
+  </si>
 </sst>
 </file>
 
@@ -981,11 +981,11 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20% - Énfasis1" xfId="5" builtinId="30"/>
-    <cellStyle name="60% - Énfasis5" xfId="6" builtinId="48"/>
-    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
-    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
+    <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{D188F44A-CEAC-484B-9B6D-FABDEF7BDE4D}"/>
   </cellStyles>
@@ -1411,7 +1411,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1533,7 +1533,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3830,8 +3830,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24079200" y="12135802"/>
-              <a:ext cx="3952875" cy="2518410"/>
+              <a:off x="23401020" y="12368212"/>
+              <a:ext cx="3838575" cy="2543175"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3850,9 +3850,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="es-ES" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3908,8 +3908,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24081105" y="14762797"/>
-              <a:ext cx="3952875" cy="2718435"/>
+              <a:off x="23402925" y="15019972"/>
+              <a:ext cx="3838575" cy="2745105"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3928,9 +3928,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="es-ES" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3986,8 +3986,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="28305442" y="12137707"/>
-              <a:ext cx="4714875" cy="2518410"/>
+              <a:off x="27484387" y="12370117"/>
+              <a:ext cx="4581525" cy="2543175"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4006,9 +4006,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="es-ES" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4064,8 +4064,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="28305442" y="14732317"/>
-              <a:ext cx="4714875" cy="2718435"/>
+              <a:off x="27484387" y="14989492"/>
+              <a:ext cx="4581525" cy="2745105"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4084,9 +4084,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="es-ES" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4480,42 +4480,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C522F9-F455-4B38-A565-C6DB8983C156}">
   <dimension ref="A1:AF987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="3" customWidth="1"/>
-    <col min="12" max="16" width="8.88671875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="3" customWidth="1"/>
-    <col min="23" max="25" width="8.5546875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="3" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" style="3"/>
-    <col min="28" max="28" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="14.44140625" style="3"/>
+    <col min="6" max="6" width="10.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="3" customWidth="1"/>
+    <col min="12" max="16" width="8.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
+    <col min="23" max="25" width="8.5703125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="3"/>
+    <col min="28" max="28" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -4535,13 +4535,13 @@
         <v>33</v>
       </c>
       <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>232</v>
-      </c>
-      <c r="I1" t="s">
-        <v>233</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -4601,10 +4601,10 @@
         <v>17</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" thickTop="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="N19"/>
       <c r="O19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -5662,7 +5662,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -7179,12 +7179,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" t="s">
         <v>134</v>
@@ -7239,7 +7239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -7356,15 +7356,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
         <v>153</v>
       </c>
-      <c r="B48" t="s">
-        <v>154</v>
-      </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="D48">
         <v>9</v>
@@ -7418,15 +7418,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
         <v>156</v>
       </c>
-      <c r="B49" t="s">
-        <v>157</v>
-      </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="D49">
         <v>8</v>
@@ -7478,15 +7478,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
         <v>158</v>
       </c>
-      <c r="B50" t="s">
-        <v>159</v>
-      </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -7542,15 +7542,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
         <v>160</v>
       </c>
-      <c r="B51" t="s">
-        <v>161</v>
-      </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -7602,15 +7602,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
         <v>162</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>163</v>
-      </c>
-      <c r="C52" t="s">
-        <v>164</v>
       </c>
       <c r="D52">
         <v>8</v>
@@ -7666,15 +7666,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
         <v>165</v>
       </c>
-      <c r="B53" t="s">
-        <v>166</v>
-      </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53">
         <v>8</v>
@@ -7725,15 +7725,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" t="s">
         <v>167</v>
       </c>
-      <c r="B54" t="s">
-        <v>168</v>
-      </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54">
         <v>8</v>
@@ -7780,15 +7780,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" t="s">
         <v>169</v>
       </c>
-      <c r="B55" t="s">
-        <v>170</v>
-      </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55">
         <v>8</v>
@@ -7831,15 +7831,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s">
         <v>171</v>
       </c>
-      <c r="B56" t="s">
-        <v>172</v>
-      </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56">
         <v>6</v>
@@ -7886,15 +7886,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
         <v>173</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>174</v>
-      </c>
-      <c r="C57" t="s">
-        <v>175</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -7948,15 +7948,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
         <v>176</v>
       </c>
-      <c r="B58" t="s">
-        <v>177</v>
-      </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58">
         <v>6</v>
@@ -8004,15 +8004,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
         <v>178</v>
       </c>
-      <c r="B59" t="s">
-        <v>179</v>
-      </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -8059,15 +8059,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
         <v>180</v>
       </c>
-      <c r="B60" t="s">
-        <v>181</v>
-      </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60">
         <v>8</v>
@@ -8116,15 +8116,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" t="s">
         <v>182</v>
       </c>
-      <c r="B61" t="s">
-        <v>183</v>
-      </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61">
         <v>8</v>
@@ -8174,15 +8174,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
         <v>184</v>
       </c>
-      <c r="B62" t="s">
-        <v>185</v>
-      </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -8232,15 +8232,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="B63" t="s">
-        <v>187</v>
-      </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -8289,12 +8289,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s">
         <v>188</v>
-      </c>
-      <c r="B64" t="s">
-        <v>189</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -8353,12 +8353,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s">
         <v>190</v>
-      </c>
-      <c r="B65" t="s">
-        <v>191</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -8417,12 +8417,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" t="s">
         <v>193</v>
-      </c>
-      <c r="B66" t="s">
-        <v>194</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
@@ -8474,12 +8474,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" t="s">
         <v>195</v>
-      </c>
-      <c r="B67" t="s">
-        <v>196</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -8542,12 +8542,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" t="s">
         <v>198</v>
-      </c>
-      <c r="B68" t="s">
-        <v>199</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -8608,12 +8608,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
         <v>200</v>
-      </c>
-      <c r="B69" t="s">
-        <v>201</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -8671,12 +8671,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" t="s">
         <v>202</v>
-      </c>
-      <c r="B70" t="s">
-        <v>203</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
@@ -8739,12 +8739,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" t="s">
         <v>204</v>
-      </c>
-      <c r="B71" t="s">
-        <v>205</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
@@ -8805,12 +8805,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
         <v>206</v>
-      </c>
-      <c r="B72" t="s">
-        <v>207</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
@@ -8868,12 +8868,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" t="s">
         <v>208</v>
-      </c>
-      <c r="B73" t="s">
-        <v>209</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
@@ -8929,12 +8929,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" t="s">
         <v>211</v>
-      </c>
-      <c r="B74" t="s">
-        <v>212</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
@@ -8995,12 +8995,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" t="s">
         <v>214</v>
-      </c>
-      <c r="B75" t="s">
-        <v>215</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -9047,10 +9047,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC76"/>
     </row>
-    <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J77" s="5" t="str">
         <f>'Privacy values'!A11</f>
         <v>sum</v>
@@ -9131,7 +9131,7 @@
       <c r="AE77"/>
       <c r="AF77"/>
     </row>
-    <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
@@ -9153,942 +9153,942 @@
       <c r="AE78"/>
       <c r="AF78"/>
     </row>
-    <row r="79" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC79"/>
     </row>
-    <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC80"/>
     </row>
-    <row r="81" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC81"/>
     </row>
-    <row r="82" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC82"/>
     </row>
-    <row r="83" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC83"/>
     </row>
-    <row r="84" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC84"/>
     </row>
-    <row r="85" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC85"/>
     </row>
-    <row r="86" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC86"/>
     </row>
-    <row r="87" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC87"/>
     </row>
-    <row r="88" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z88" s="10"/>
       <c r="AC88"/>
     </row>
-    <row r="89" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC89"/>
     </row>
-    <row r="90" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC90"/>
     </row>
-    <row r="91" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC91"/>
     </row>
-    <row r="92" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="26:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="Z76">
     <cfRule type="colorScale" priority="12">
@@ -10130,9 +10130,9 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -10620,33 +10620,33 @@
       <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="3" customWidth="1"/>
-    <col min="12" max="16" width="8.88671875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="3" customWidth="1"/>
-    <col min="23" max="25" width="8.5546875" style="3" customWidth="1"/>
-    <col min="30" max="31" width="8.88671875" style="3" customWidth="1"/>
-    <col min="32" max="33" width="14.44140625" style="3"/>
-    <col min="36" max="16384" width="14.44140625" style="3"/>
+    <col min="6" max="6" width="10.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="3" customWidth="1"/>
+    <col min="12" max="16" width="8.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
+    <col min="23" max="25" width="8.5703125" style="3" customWidth="1"/>
+    <col min="30" max="31" width="8.85546875" style="3" customWidth="1"/>
+    <col min="32" max="33" width="14.42578125" style="3"/>
+    <col min="36" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -10666,13 +10666,13 @@
         <v>33</v>
       </c>
       <c r="G1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>232</v>
-      </c>
-      <c r="I1" t="s">
-        <v>233</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -10735,16 +10735,16 @@
         <v>26</v>
       </c>
       <c r="AE1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="AG1" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="N19"/>
       <c r="O19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -12013,7 +12013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -13986,15 +13986,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
       <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
         <v>151</v>
-      </c>
-      <c r="C47" t="s">
-        <v>152</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -14061,15 +14061,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48">
         <v>9</v>
@@ -14136,12 +14136,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="C49"/>
       <c r="D49">
@@ -14207,12 +14207,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="C50"/>
       <c r="D50">
@@ -14282,12 +14282,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="C51"/>
       <c r="D51">
@@ -14353,12 +14353,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52"/>
       <c r="D52">
@@ -14428,12 +14428,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C53"/>
       <c r="D53">
@@ -14499,12 +14499,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54"/>
       <c r="D54">
@@ -14566,12 +14566,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55"/>
       <c r="D55">
@@ -14629,12 +14629,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56"/>
       <c r="D56">
@@ -14696,15 +14696,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -14771,12 +14771,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58"/>
       <c r="D58">
@@ -14838,12 +14838,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C59"/>
       <c r="D59">
@@ -14905,15 +14905,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60">
         <v>8</v>
@@ -14976,12 +14976,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61"/>
       <c r="D61">
@@ -15045,12 +15045,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C62"/>
       <c r="D62">
@@ -15114,12 +15114,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C63"/>
       <c r="D63">
@@ -15183,9 +15183,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -15258,15 +15258,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -15335,9 +15335,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -15404,15 +15404,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -15485,15 +15485,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -15564,9 +15564,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -15639,9 +15639,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -15718,15 +15718,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71">
         <v>6</v>
@@ -15797,9 +15797,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -15874,15 +15874,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73">
         <v>8</v>
@@ -15949,15 +15949,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -16028,9 +16028,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
@@ -16093,9 +16093,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AC76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD76" s="7">
         <f>MAX(AD2:AD75)</f>
@@ -16114,7 +16114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J77" s="5" t="str">
         <f>'Privacy values'!A10</f>
         <v>mean</v>
@@ -16192,7 +16192,7 @@
         <v>5.1496638245683073</v>
       </c>
       <c r="AC77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD77" s="7">
         <f>MIN(AD2:AD75)</f>
@@ -16211,7 +16211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J78" s="5" t="str">
         <f>'Privacy values'!A11</f>
         <v>sum</v>
@@ -16308,7 +16308,7 @@
         <v>11.657119026276174</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J79" s="5" t="str">
         <f>'Privacy values'!A12</f>
         <v>max</v>
@@ -16386,7 +16386,7 @@
         <v>7</v>
       </c>
       <c r="AC79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD79" s="7">
         <f>MEDIAN(AD5:AD78)</f>
@@ -16405,7 +16405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J80" s="5" t="str">
         <f>'Privacy values'!A13</f>
         <v>median</v>
@@ -16483,7 +16483,7 @@
         <v>7</v>
       </c>
       <c r="AC80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD80" s="7">
         <f>_xlfn.STDEV.P(AD6:AD79)</f>
@@ -16502,10 +16502,10 @@
         <v>4.8947774334841219</v>
       </c>
     </row>
-    <row r="81" spans="28:33" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="28:33" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD82" s="9">
         <f>SUM(K77:AB77)</f>
@@ -16524,965 +16524,965 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF84" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB85" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC85" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB85" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC85" t="s">
+    <row r="86" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC86" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE86" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC87" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="86" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AC86" t="s">
+      <c r="AE87" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC88" t="s">
         <v>226</v>
       </c>
-      <c r="AE86" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AC87" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE87" s="13" t="s">
+      <c r="AE88" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AC88" t="s">
+    <row r="89" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC89" t="s">
         <v>227</v>
       </c>
-      <c r="AE88" s="13" t="s">
+      <c r="AE89" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AC89" t="s">
+    <row r="90" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC90" t="s">
         <v>228</v>
       </c>
-      <c r="AE89" s="14" t="s">
+      <c r="AE90" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AC90" t="s">
+    <row r="91" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC91" t="s">
         <v>229</v>
       </c>
-      <c r="AE90" s="13" t="s">
+      <c r="AE91" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AC91" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE91" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="28:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescen